--- a/batch-layer/src/it/resources/template.xlsx
+++ b/batch-layer/src/it/resources/template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="762">
   <si>
     <t>C282/F</t>
   </si>
@@ -42,6 +42,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SNCB, Direction Voyageurs National, Service Central Clientèle, B-VN.061 section 13/7, Avenue de la Porte de Hal 40, 1060 Bruxelles</t>
     </r>
@@ -50,6 +51,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">.
 Si vous complétez le formulaire électronique, envoyez-le par mail à </t>
@@ -60,6 +62,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>compensations@sncb.be</t>
     </r>
@@ -68,6 +71,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">.
 Envoyez-nous votre formulaire dans les 15 jours qui suivent la période de 6 mois à dater de votre 1er retard encouru. Si vous avez voyagé avec un Pass, une Carte à compléter, Campus ou Railflex®, vous introduirez alors votre demande, au plus tard, 15 jours après utilisation de la dernière ligne de votre titre de transport.
@@ -80,6 +84,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>www.sncb.be</t>
     </r>
@@ -88,6 +93,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ou notre dépliant disponible en gare. Vous pouvez télécharger ce formulaire sur notre site internet.</t>
     </r>
@@ -108,6 +114,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(1)</t>
     </r>
@@ -125,6 +132,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(1)</t>
     </r>
@@ -199,6 +207,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> prévu</t>
     </r>
@@ -213,6 +222,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> effectif</t>
     </r>
@@ -226,6 +236,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  en minutes</t>
     </r>
@@ -240,6 +251,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(2)</t>
     </r>
@@ -257,6 +269,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(3)</t>
     </r>
@@ -288,6 +301,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(4)</t>
     </r>
@@ -303,6 +317,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(4)</t>
     </r>
@@ -346,6 +361,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> En toutes lettres</t>
     </r>
@@ -359,6 +375,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Billet, Carte train, Campus, Railflex, Pass, Carte</t>
     </r>
@@ -372,6 +389,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Uniquement pour Pass/Cartes/Campus/Railflex</t>
     </r>
@@ -385,6 +403,7 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Vous trouverez le numéro de votre (vos) train(s) dans les horaires publiés sur notre site internet, sur CD-Rom (ARIdisc) ou dans l’indicateur.</t>
     </r>
@@ -2503,6 +2522,9 @@
   </si>
   <si>
     <t>ZWIJNDRECHT</t>
+  </si>
+  <si>
+    <t>058900162430</t>
   </si>
 </sst>
 </file>
@@ -2516,7 +2538,7 @@
     <numFmt numFmtId="167" formatCode="#"/>
     <numFmt numFmtId="168" formatCode="000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2527,123 +2549,145 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF969696"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF969696"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2651,12 +2695,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2691,7 +2748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2903,6 +2960,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3035,18 +3129,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3058,6 +3140,15 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3071,25 +3162,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3113,6 +3195,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3121,163 +3221,6 @@
     </xf>
     <xf numFmtId="166" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3321,23 +3264,174 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8240,7 +8334,7 @@
   <dimension ref="A1:IV77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:R22"/>
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8271,15 +8365,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="BC1" s="90">
+      <c r="C1" s="92"/>
+      <c r="BC1" s="153">
         <v>1</v>
       </c>
-      <c r="BD1" s="90"/>
-      <c r="BE1" s="90"/>
+      <c r="BD1" s="153"/>
+      <c r="BE1" s="153"/>
     </row>
     <row r="2" spans="1:61" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15">
@@ -8287,9 +8381,9 @@
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="48"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -8343,62 +8437,62 @@
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="114"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="115"/>
-      <c r="BC3" s="115"/>
-      <c r="BD3" s="115"/>
-      <c r="BE3" s="115"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="142"/>
+      <c r="AH3" s="142"/>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="142"/>
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142"/>
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142"/>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="142"/>
+      <c r="AT3" s="142"/>
+      <c r="AU3" s="142"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="142"/>
+      <c r="AX3" s="142"/>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="143"/>
+      <c r="BB3" s="143"/>
+      <c r="BC3" s="143"/>
+      <c r="BD3" s="143"/>
+      <c r="BE3" s="143"/>
       <c r="BF3" s="17"/>
       <c r="BG3" s="17"/>
       <c r="BH3" s="17"/>
@@ -8407,62 +8501,62 @@
       <c r="A4" s="6"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="116"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="117"/>
-      <c r="BB4" s="117"/>
-      <c r="BC4" s="117"/>
-      <c r="BD4" s="117"/>
-      <c r="BE4" s="117"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="144"/>
+      <c r="AT4" s="144"/>
+      <c r="AU4" s="144"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="144"/>
+      <c r="AX4" s="144"/>
+      <c r="AY4" s="144"/>
+      <c r="AZ4" s="144"/>
+      <c r="BA4" s="145"/>
+      <c r="BB4" s="145"/>
+      <c r="BC4" s="145"/>
+      <c r="BD4" s="145"/>
+      <c r="BE4" s="145"/>
       <c r="BF4" s="15"/>
       <c r="BG4" s="15"/>
       <c r="BH4" s="15"/>
@@ -8530,82 +8624,82 @@
       <c r="BH5" s="18"/>
     </row>
     <row r="6" spans="1:61" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="86"/>
-      <c r="AV6" s="86"/>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="87"/>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="87"/>
-      <c r="BB6" s="87"/>
-      <c r="BC6" s="87"/>
-      <c r="BD6" s="87"/>
-      <c r="BE6" s="87"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="150"/>
+      <c r="R6" s="150"/>
+      <c r="S6" s="150"/>
+      <c r="T6" s="150"/>
+      <c r="U6" s="150"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="150"/>
+      <c r="AG6" s="150"/>
+      <c r="AH6" s="150"/>
+      <c r="AI6" s="150"/>
+      <c r="AJ6" s="150"/>
+      <c r="AK6" s="150"/>
+      <c r="AL6" s="150"/>
+      <c r="AM6" s="150"/>
+      <c r="AN6" s="150"/>
+      <c r="AO6" s="150"/>
+      <c r="AP6" s="150"/>
+      <c r="AQ6" s="150"/>
+      <c r="AR6" s="150"/>
+      <c r="AS6" s="150"/>
+      <c r="AT6" s="150"/>
+      <c r="AU6" s="150"/>
+      <c r="AV6" s="150"/>
+      <c r="AW6" s="122"/>
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="122"/>
+      <c r="AZ6" s="122"/>
+      <c r="BA6" s="122"/>
+      <c r="BB6" s="122"/>
+      <c r="BC6" s="122"/>
+      <c r="BD6" s="122"/>
+      <c r="BE6" s="122"/>
     </row>
     <row r="7" spans="1:61" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="95" t="s">
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="154"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
@@ -8728,66 +8822,66 @@
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="91" t="s">
+      <c r="K9" s="107"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="98" t="s">
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="131"/>
+      <c r="Y9" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="91" t="s">
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="125" t="s">
+      <c r="AE9" s="126"/>
+      <c r="AF9" s="126"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
+      <c r="AJ9" s="126"/>
+      <c r="AK9" s="126"/>
+      <c r="AL9" s="126"/>
+      <c r="AM9" s="126"/>
+      <c r="AN9" s="126"/>
+      <c r="AO9" s="119"/>
+      <c r="AP9" s="120"/>
+      <c r="AQ9" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="AR9" s="108"/>
-      <c r="AS9" s="108"/>
-      <c r="AT9" s="108"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="126"/>
-      <c r="AX9" s="95" t="s">
+      <c r="AR9" s="127"/>
+      <c r="AS9" s="127"/>
+      <c r="AT9" s="127"/>
+      <c r="AU9" s="127"/>
+      <c r="AV9" s="127"/>
+      <c r="AW9" s="130"/>
+      <c r="AX9" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AY9" s="96"/>
-      <c r="AZ9" s="96"/>
-      <c r="BA9" s="96"/>
-      <c r="BB9" s="96"/>
-      <c r="BC9" s="118"/>
-      <c r="BD9" s="118"/>
-      <c r="BE9" s="119"/>
+      <c r="AY9" s="147"/>
+      <c r="AZ9" s="147"/>
+      <c r="BA9" s="147"/>
+      <c r="BB9" s="147"/>
+      <c r="BC9" s="148"/>
+      <c r="BD9" s="148"/>
+      <c r="BE9" s="149"/>
       <c r="BF9" s="28"/>
       <c r="BG9" s="28"/>
       <c r="BH9" s="28"/>
@@ -8858,72 +8952,72 @@
     <row r="11" spans="1:61" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="91" t="s">
+      <c r="E11" s="109"/>
+      <c r="F11" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="125" t="s">
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="126"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="126"/>
+      <c r="AB11" s="126"/>
+      <c r="AC11" s="126"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="126"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="119"/>
+      <c r="AK11" s="119"/>
+      <c r="AL11" s="119"/>
+      <c r="AM11" s="119"/>
+      <c r="AN11" s="119"/>
+      <c r="AO11" s="119"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="127"/>
-      <c r="AU11" s="91">
+      <c r="AR11" s="122"/>
+      <c r="AS11" s="122"/>
+      <c r="AT11" s="123"/>
+      <c r="AU11" s="125">
         <v>45</v>
       </c>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="94"/>
-      <c r="AY11" s="128" t="s">
+      <c r="AV11" s="119"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="120"/>
+      <c r="AY11" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AZ11" s="108"/>
-      <c r="BA11" s="108"/>
-      <c r="BB11" s="124">
+      <c r="AZ11" s="127"/>
+      <c r="BA11" s="127"/>
+      <c r="BB11" s="118">
         <v>1</v>
       </c>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="94"/>
+      <c r="BC11" s="119"/>
+      <c r="BD11" s="119"/>
+      <c r="BE11" s="120"/>
       <c r="BF11" s="28"/>
       <c r="BG11" s="28"/>
       <c r="BH11" s="28"/>
@@ -8994,72 +9088,72 @@
     <row r="13" spans="1:61" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="112" t="s">
+      <c r="D13" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="91">
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="125">
         <v>4100</v>
       </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="128" t="s">
+      <c r="I13" s="139"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="129" t="s">
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="128" t="s">
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="119"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="99"/>
-      <c r="AH13" s="129" t="s">
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="AI13" s="130"/>
-      <c r="AJ13" s="130"/>
-      <c r="AK13" s="130"/>
-      <c r="AL13" s="130"/>
-      <c r="AM13" s="130"/>
-      <c r="AN13" s="130"/>
-      <c r="AO13" s="130"/>
-      <c r="AP13" s="130"/>
-      <c r="AQ13" s="130"/>
-      <c r="AR13" s="130"/>
-      <c r="AS13" s="130"/>
-      <c r="AT13" s="130"/>
-      <c r="AU13" s="130"/>
-      <c r="AV13" s="130"/>
-      <c r="AW13" s="130"/>
-      <c r="AX13" s="130"/>
-      <c r="AY13" s="130"/>
-      <c r="AZ13" s="130"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="93"/>
-      <c r="BE13" s="94"/>
+      <c r="AI13" s="129"/>
+      <c r="AJ13" s="129"/>
+      <c r="AK13" s="129"/>
+      <c r="AL13" s="129"/>
+      <c r="AM13" s="129"/>
+      <c r="AN13" s="129"/>
+      <c r="AO13" s="129"/>
+      <c r="AP13" s="129"/>
+      <c r="AQ13" s="129"/>
+      <c r="AR13" s="129"/>
+      <c r="AS13" s="129"/>
+      <c r="AT13" s="129"/>
+      <c r="AU13" s="129"/>
+      <c r="AV13" s="129"/>
+      <c r="AW13" s="129"/>
+      <c r="AX13" s="129"/>
+      <c r="AY13" s="129"/>
+      <c r="AZ13" s="129"/>
+      <c r="BA13" s="119"/>
+      <c r="BB13" s="119"/>
+      <c r="BC13" s="119"/>
+      <c r="BD13" s="119"/>
+      <c r="BE13" s="120"/>
       <c r="BF13" s="28"/>
       <c r="BG13" s="28"/>
       <c r="BH13" s="28"/>
@@ -9130,70 +9224,70 @@
     <row r="15" spans="1:61" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="91">
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="125">
         <v>498630902</v>
       </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="128" t="s">
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="131"/>
+      <c r="R15" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="98"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="128" t="s">
+      <c r="S15" s="107"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="126"/>
+      <c r="W15" s="126"/>
+      <c r="X15" s="126"/>
+      <c r="Y15" s="126"/>
+      <c r="Z15" s="126"/>
+      <c r="AA15" s="126"/>
+      <c r="AB15" s="119"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="98"/>
-      <c r="AH15" s="91" t="s">
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="92"/>
-      <c r="AM15" s="92"/>
-      <c r="AN15" s="92"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="92"/>
-      <c r="AQ15" s="92"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="92"/>
-      <c r="AT15" s="92"/>
-      <c r="AU15" s="92"/>
-      <c r="AV15" s="92"/>
-      <c r="AW15" s="92"/>
-      <c r="AX15" s="92"/>
-      <c r="AY15" s="92"/>
-      <c r="AZ15" s="92"/>
-      <c r="BA15" s="92"/>
-      <c r="BB15" s="92"/>
-      <c r="BC15" s="92"/>
-      <c r="BD15" s="93"/>
-      <c r="BE15" s="94"/>
+      <c r="AI15" s="126"/>
+      <c r="AJ15" s="126"/>
+      <c r="AK15" s="126"/>
+      <c r="AL15" s="126"/>
+      <c r="AM15" s="126"/>
+      <c r="AN15" s="126"/>
+      <c r="AO15" s="126"/>
+      <c r="AP15" s="126"/>
+      <c r="AQ15" s="126"/>
+      <c r="AR15" s="126"/>
+      <c r="AS15" s="126"/>
+      <c r="AT15" s="126"/>
+      <c r="AU15" s="126"/>
+      <c r="AV15" s="126"/>
+      <c r="AW15" s="126"/>
+      <c r="AX15" s="126"/>
+      <c r="AY15" s="126"/>
+      <c r="AZ15" s="126"/>
+      <c r="BA15" s="126"/>
+      <c r="BB15" s="126"/>
+      <c r="BC15" s="126"/>
+      <c r="BD15" s="119"/>
+      <c r="BE15" s="120"/>
       <c r="BF15" s="28"/>
       <c r="BG15" s="28"/>
       <c r="BH15" s="28"/>
@@ -9264,62 +9358,62 @@
     <row r="17" spans="2:61" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="108"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="108"/>
-      <c r="Y17" s="108"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="108"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="108"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="108"/>
-      <c r="AH17" s="108"/>
-      <c r="AI17" s="108"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="108"/>
-      <c r="AM17" s="108"/>
-      <c r="AN17" s="108"/>
-      <c r="AO17" s="108"/>
-      <c r="AP17" s="108"/>
-      <c r="AQ17" s="108"/>
-      <c r="AR17" s="108"/>
-      <c r="AS17" s="108"/>
-      <c r="AT17" s="108"/>
-      <c r="AU17" s="108"/>
-      <c r="AV17" s="108"/>
-      <c r="AW17" s="108"/>
-      <c r="AX17" s="108"/>
-      <c r="AY17" s="108"/>
-      <c r="AZ17" s="108"/>
-      <c r="BA17" s="108"/>
-      <c r="BB17" s="108"/>
-      <c r="BC17" s="108"/>
-      <c r="BD17" s="108"/>
-      <c r="BE17" s="108"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="127"/>
+      <c r="AN17" s="127"/>
+      <c r="AO17" s="127"/>
+      <c r="AP17" s="127"/>
+      <c r="AQ17" s="127"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="127"/>
+      <c r="AU17" s="127"/>
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="127"/>
+      <c r="BB17" s="127"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="127"/>
+      <c r="BE17" s="127"/>
       <c r="BF17" s="28"/>
       <c r="BG17" s="28"/>
       <c r="BH17" s="28"/>
@@ -9389,158 +9483,158 @@
     </row>
     <row r="19" spans="2:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="C19" s="142" t="s">
+      <c r="C19" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147" t="s">
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="123" t="s">
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="81"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="81"/>
-      <c r="AO19" s="81"/>
-      <c r="AP19" s="82"/>
-      <c r="AQ19" s="80" t="s">
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="79"/>
+      <c r="AQ19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="81"/>
-      <c r="AT19" s="81"/>
-      <c r="AU19" s="81"/>
-      <c r="AV19" s="81"/>
-      <c r="AW19" s="81"/>
-      <c r="AX19" s="81"/>
-      <c r="AY19" s="81"/>
-      <c r="AZ19" s="81"/>
-      <c r="BA19" s="81"/>
-      <c r="BB19" s="82"/>
-      <c r="BC19" s="101" t="s">
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="79"/>
+      <c r="BC19" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="BD19" s="102"/>
-      <c r="BE19" s="103"/>
+      <c r="BD19" s="133"/>
+      <c r="BE19" s="134"/>
       <c r="BF19" s="21"/>
       <c r="BG19" s="21"/>
       <c r="BH19" s="21"/>
     </row>
     <row r="20" spans="2:61" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="149" t="s">
+      <c r="C20" s="94"/>
+      <c r="D20" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="149" t="s">
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="150"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="149" t="s">
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="150"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="123" t="s">
+      <c r="K20" s="101"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="80" t="s">
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="123" t="s">
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="80" t="s">
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="80" t="s">
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="79"/>
+      <c r="AH20" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="80" t="s">
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="82"/>
-      <c r="AQ20" s="80" t="s">
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="79"/>
+      <c r="AQ20" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="82"/>
-      <c r="AT20" s="80" t="s">
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="79"/>
+      <c r="AT20" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="AU20" s="81"/>
-      <c r="AV20" s="82"/>
-      <c r="AW20" s="80" t="s">
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="79"/>
+      <c r="AW20" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="81"/>
-      <c r="AZ20" s="81"/>
-      <c r="BA20" s="81"/>
-      <c r="BB20" s="82"/>
-      <c r="BC20" s="104"/>
-      <c r="BD20" s="105"/>
-      <c r="BE20" s="106"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="78"/>
+      <c r="AZ20" s="78"/>
+      <c r="BA20" s="78"/>
+      <c r="BB20" s="79"/>
+      <c r="BC20" s="135"/>
+      <c r="BD20" s="136"/>
+      <c r="BE20" s="137"/>
       <c r="BF20" s="21"/>
       <c r="BG20" s="21"/>
       <c r="BH20" s="21"/>
@@ -9552,43 +9646,43 @@
       <c r="C21" s="54">
         <v>39709</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="155" t="s">
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="156"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="135" t="s">
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="132" t="s">
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="133"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="133"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="134"/>
-      <c r="Y21" s="135" t="s">
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="Z21" s="136"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="136"/>
-      <c r="AD21" s="137"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="105"/>
       <c r="AE21" s="41">
         <v>14</v>
       </c>
@@ -9607,16 +9701,16 @@
       <c r="AJ21" s="42">
         <v>23</v>
       </c>
-      <c r="AK21" s="83">
+      <c r="AK21" s="86">
         <v>3813</v>
       </c>
-      <c r="AL21" s="84"/>
-      <c r="AM21" s="85"/>
-      <c r="AN21" s="83">
+      <c r="AL21" s="87"/>
+      <c r="AM21" s="88"/>
+      <c r="AN21" s="86">
         <v>4514</v>
       </c>
-      <c r="AO21" s="84"/>
-      <c r="AP21" s="85"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="88"/>
       <c r="AQ21" s="41">
         <v>14</v>
       </c>
@@ -9635,22 +9729,22 @@
       <c r="AV21" s="42">
         <v>43</v>
       </c>
-      <c r="AW21" s="83">
+      <c r="AW21" s="86">
         <v>3813</v>
       </c>
-      <c r="AX21" s="84"/>
-      <c r="AY21" s="85"/>
-      <c r="AZ21" s="83">
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="88"/>
+      <c r="AZ21" s="86">
         <v>4514</v>
       </c>
-      <c r="BA21" s="84"/>
-      <c r="BB21" s="85"/>
-      <c r="BC21" s="138">
+      <c r="BA21" s="87"/>
+      <c r="BB21" s="88"/>
+      <c r="BC21" s="89">
         <f t="shared" ref="BC21:BC61" si="0">$BF21-$BH21</f>
         <v>20</v>
       </c>
-      <c r="BD21" s="139"/>
-      <c r="BE21" s="140"/>
+      <c r="BD21" s="90"/>
+      <c r="BE21" s="91"/>
       <c r="BF21" s="43">
         <f t="shared" ref="BF21:BF61" si="1">IF($BG21&lt;$BH21,$BG21+1440,$BG21)</f>
         <v>943</v>
@@ -9670,63 +9764,75 @@
         <v>1</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="64"/>
+      <c r="D22" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="73"/>
       <c r="S22" s="68"/>
       <c r="T22" s="69"/>
       <c r="U22" s="69"/>
       <c r="V22" s="69"/>
       <c r="W22" s="69"/>
       <c r="X22" s="70"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="64"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="73"/>
       <c r="AE22" s="12"/>
-      <c r="AF22" s="52"/>
+      <c r="AF22" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG22" s="13"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="52"/>
+      <c r="AI22" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ22" s="13"/>
-      <c r="AK22" s="65"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="67"/>
-      <c r="AN22" s="65"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="67"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="64"/>
       <c r="AQ22" s="12"/>
-      <c r="AR22" s="52"/>
+      <c r="AR22" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS22" s="13"/>
       <c r="AT22" s="12"/>
-      <c r="AU22" s="52"/>
+      <c r="AU22" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV22" s="13"/>
-      <c r="AW22" s="65"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="67"/>
-      <c r="AZ22" s="65"/>
-      <c r="BA22" s="66"/>
-      <c r="BB22" s="67"/>
-      <c r="BC22" s="71">
+      <c r="AW22" s="62"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="62"/>
+      <c r="BA22" s="63"/>
+      <c r="BB22" s="64"/>
+      <c r="BC22" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD22" s="72"/>
-      <c r="BE22" s="73"/>
+      <c r="BD22" s="66"/>
+      <c r="BE22" s="67"/>
       <c r="BF22" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9746,63 +9852,75 @@
         <v>2</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="64"/>
+      <c r="D23" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="156"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H23" s="156"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="73"/>
       <c r="S23" s="68"/>
       <c r="T23" s="69"/>
       <c r="U23" s="69"/>
       <c r="V23" s="69"/>
       <c r="W23" s="69"/>
       <c r="X23" s="70"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="64"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="72"/>
+      <c r="AC23" s="72"/>
+      <c r="AD23" s="73"/>
       <c r="AE23" s="12"/>
-      <c r="AF23" s="52"/>
+      <c r="AF23" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG23" s="13"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="52"/>
+      <c r="AI23" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ23" s="13"/>
-      <c r="AK23" s="65"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="67"/>
-      <c r="AN23" s="65"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="67"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="64"/>
       <c r="AQ23" s="12"/>
-      <c r="AR23" s="52"/>
+      <c r="AR23" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS23" s="13"/>
       <c r="AT23" s="12"/>
-      <c r="AU23" s="52"/>
+      <c r="AU23" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV23" s="13"/>
-      <c r="AW23" s="65"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="65"/>
-      <c r="BA23" s="66"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="71">
+      <c r="AW23" s="62"/>
+      <c r="AX23" s="63"/>
+      <c r="AY23" s="64"/>
+      <c r="AZ23" s="62"/>
+      <c r="BA23" s="63"/>
+      <c r="BB23" s="64"/>
+      <c r="BC23" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD23" s="72"/>
-      <c r="BE23" s="73"/>
+      <c r="BD23" s="66"/>
+      <c r="BE23" s="67"/>
       <c r="BF23" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9821,63 +9939,75 @@
         <v>3</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="64"/>
+      <c r="D24" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="156"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H24" s="156"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="73"/>
       <c r="S24" s="68"/>
       <c r="T24" s="69"/>
       <c r="U24" s="69"/>
       <c r="V24" s="69"/>
       <c r="W24" s="69"/>
       <c r="X24" s="70"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="64"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="73"/>
       <c r="AE24" s="12"/>
-      <c r="AF24" s="52"/>
+      <c r="AF24" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="52"/>
+      <c r="AI24" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ24" s="13"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="67"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="67"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="64"/>
       <c r="AQ24" s="12"/>
-      <c r="AR24" s="52"/>
+      <c r="AR24" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS24" s="13"/>
       <c r="AT24" s="12"/>
-      <c r="AU24" s="52"/>
+      <c r="AU24" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV24" s="13"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="67"/>
-      <c r="AZ24" s="65"/>
-      <c r="BA24" s="66"/>
-      <c r="BB24" s="67"/>
-      <c r="BC24" s="71">
+      <c r="AW24" s="62"/>
+      <c r="AX24" s="63"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="62"/>
+      <c r="BA24" s="63"/>
+      <c r="BB24" s="64"/>
+      <c r="BC24" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD24" s="72"/>
-      <c r="BE24" s="73"/>
+      <c r="BD24" s="66"/>
+      <c r="BE24" s="67"/>
       <c r="BF24" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9896,63 +10026,75 @@
         <v>4</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
+      <c r="D25" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="156"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="73"/>
       <c r="S25" s="68"/>
       <c r="T25" s="69"/>
       <c r="U25" s="69"/>
       <c r="V25" s="69"/>
       <c r="W25" s="69"/>
       <c r="X25" s="70"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="64"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="73"/>
       <c r="AE25" s="12"/>
-      <c r="AF25" s="52"/>
+      <c r="AF25" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG25" s="13"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="52"/>
+      <c r="AI25" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ25" s="13"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="66"/>
-      <c r="AM25" s="67"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="66"/>
-      <c r="AP25" s="67"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="64"/>
       <c r="AQ25" s="12"/>
-      <c r="AR25" s="52"/>
+      <c r="AR25" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS25" s="13"/>
       <c r="AT25" s="12"/>
-      <c r="AU25" s="52"/>
+      <c r="AU25" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV25" s="13"/>
-      <c r="AW25" s="65"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="65"/>
-      <c r="BA25" s="66"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="71">
+      <c r="AW25" s="62"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="62"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="64"/>
+      <c r="BC25" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD25" s="72"/>
-      <c r="BE25" s="73"/>
+      <c r="BD25" s="66"/>
+      <c r="BE25" s="67"/>
       <c r="BF25" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9971,63 +10113,75 @@
         <v>5</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
+      <c r="D26" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="156"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="73"/>
       <c r="S26" s="68"/>
       <c r="T26" s="69"/>
       <c r="U26" s="69"/>
       <c r="V26" s="69"/>
       <c r="W26" s="69"/>
       <c r="X26" s="70"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="63"/>
-      <c r="AB26" s="63"/>
-      <c r="AC26" s="63"/>
-      <c r="AD26" s="64"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="73"/>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="52"/>
+      <c r="AF26" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG26" s="13"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="52"/>
+      <c r="AI26" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ26" s="13"/>
-      <c r="AK26" s="65"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="67"/>
-      <c r="AN26" s="65"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="67"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="64"/>
       <c r="AQ26" s="12"/>
-      <c r="AR26" s="52"/>
+      <c r="AR26" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS26" s="13"/>
       <c r="AT26" s="12"/>
-      <c r="AU26" s="52"/>
+      <c r="AU26" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV26" s="13"/>
-      <c r="AW26" s="65"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="65"/>
-      <c r="BA26" s="66"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="71">
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="64"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="64"/>
+      <c r="BC26" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD26" s="72"/>
-      <c r="BE26" s="73"/>
+      <c r="BD26" s="66"/>
+      <c r="BE26" s="67"/>
       <c r="BF26" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10046,63 +10200,75 @@
         <v>6</v>
       </c>
       <c r="C27" s="11"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="64"/>
+      <c r="D27" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="156"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="73"/>
       <c r="S27" s="68"/>
       <c r="T27" s="69"/>
       <c r="U27" s="69"/>
       <c r="V27" s="69"/>
       <c r="W27" s="69"/>
       <c r="X27" s="70"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="63"/>
-      <c r="AA27" s="63"/>
-      <c r="AB27" s="63"/>
-      <c r="AC27" s="63"/>
-      <c r="AD27" s="64"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="72"/>
+      <c r="AA27" s="72"/>
+      <c r="AB27" s="72"/>
+      <c r="AC27" s="72"/>
+      <c r="AD27" s="73"/>
       <c r="AE27" s="12"/>
-      <c r="AF27" s="52"/>
+      <c r="AF27" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG27" s="13"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="52"/>
+      <c r="AI27" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ27" s="13"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="66"/>
-      <c r="AM27" s="67"/>
-      <c r="AN27" s="65"/>
-      <c r="AO27" s="66"/>
-      <c r="AP27" s="67"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="64"/>
       <c r="AQ27" s="12"/>
-      <c r="AR27" s="52"/>
+      <c r="AR27" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS27" s="13"/>
       <c r="AT27" s="12"/>
-      <c r="AU27" s="52"/>
+      <c r="AU27" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV27" s="13"/>
-      <c r="AW27" s="65"/>
-      <c r="AX27" s="66"/>
-      <c r="AY27" s="67"/>
-      <c r="AZ27" s="65"/>
-      <c r="BA27" s="66"/>
-      <c r="BB27" s="67"/>
-      <c r="BC27" s="71">
+      <c r="AW27" s="62"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="62"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="64"/>
+      <c r="BC27" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD27" s="72"/>
-      <c r="BE27" s="73"/>
+      <c r="BD27" s="66"/>
+      <c r="BE27" s="67"/>
       <c r="BF27" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10121,63 +10287,75 @@
         <v>7</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="64"/>
+      <c r="D28" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="156"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="73"/>
       <c r="S28" s="68"/>
       <c r="T28" s="69"/>
       <c r="U28" s="69"/>
       <c r="V28" s="69"/>
       <c r="W28" s="69"/>
       <c r="X28" s="70"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="64"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="72"/>
+      <c r="AA28" s="72"/>
+      <c r="AB28" s="72"/>
+      <c r="AC28" s="72"/>
+      <c r="AD28" s="73"/>
       <c r="AE28" s="12"/>
-      <c r="AF28" s="52"/>
+      <c r="AF28" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG28" s="13"/>
       <c r="AH28" s="12"/>
-      <c r="AI28" s="52"/>
+      <c r="AI28" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ28" s="13"/>
-      <c r="AK28" s="65"/>
-      <c r="AL28" s="66"/>
-      <c r="AM28" s="67"/>
-      <c r="AN28" s="65"/>
-      <c r="AO28" s="66"/>
-      <c r="AP28" s="67"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="64"/>
       <c r="AQ28" s="12"/>
-      <c r="AR28" s="52"/>
+      <c r="AR28" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS28" s="13"/>
       <c r="AT28" s="12"/>
-      <c r="AU28" s="52"/>
+      <c r="AU28" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV28" s="13"/>
-      <c r="AW28" s="65"/>
-      <c r="AX28" s="66"/>
-      <c r="AY28" s="67"/>
-      <c r="AZ28" s="65"/>
-      <c r="BA28" s="66"/>
-      <c r="BB28" s="67"/>
-      <c r="BC28" s="71">
+      <c r="AW28" s="62"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="62"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD28" s="72"/>
-      <c r="BE28" s="73"/>
+      <c r="BD28" s="66"/>
+      <c r="BE28" s="67"/>
       <c r="BF28" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10196,63 +10374,75 @@
         <v>8</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="64"/>
+      <c r="D29" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="156"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H29" s="156"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="73"/>
       <c r="S29" s="68"/>
       <c r="T29" s="69"/>
       <c r="U29" s="69"/>
       <c r="V29" s="69"/>
       <c r="W29" s="69"/>
       <c r="X29" s="70"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="63"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="63"/>
-      <c r="AC29" s="63"/>
-      <c r="AD29" s="64"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="73"/>
       <c r="AE29" s="12"/>
-      <c r="AF29" s="52"/>
+      <c r="AF29" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG29" s="13"/>
       <c r="AH29" s="12"/>
-      <c r="AI29" s="52"/>
+      <c r="AI29" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ29" s="13"/>
-      <c r="AK29" s="65"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="65"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="67"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="64"/>
       <c r="AQ29" s="12"/>
-      <c r="AR29" s="52"/>
+      <c r="AR29" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS29" s="13"/>
       <c r="AT29" s="12"/>
-      <c r="AU29" s="52"/>
+      <c r="AU29" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV29" s="13"/>
-      <c r="AW29" s="65"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="67"/>
-      <c r="AZ29" s="65"/>
-      <c r="BA29" s="66"/>
-      <c r="BB29" s="67"/>
-      <c r="BC29" s="71">
+      <c r="AW29" s="62"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="62"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="64"/>
+      <c r="BC29" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD29" s="72"/>
-      <c r="BE29" s="73"/>
+      <c r="BD29" s="66"/>
+      <c r="BE29" s="67"/>
       <c r="BF29" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10271,63 +10461,75 @@
         <v>9</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="64"/>
+      <c r="D30" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H30" s="156"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="73"/>
       <c r="S30" s="68"/>
       <c r="T30" s="69"/>
       <c r="U30" s="69"/>
       <c r="V30" s="69"/>
       <c r="W30" s="69"/>
       <c r="X30" s="70"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="63"/>
-      <c r="AA30" s="63"/>
-      <c r="AB30" s="63"/>
-      <c r="AC30" s="63"/>
-      <c r="AD30" s="64"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="72"/>
+      <c r="AC30" s="72"/>
+      <c r="AD30" s="73"/>
       <c r="AE30" s="12"/>
-      <c r="AF30" s="52"/>
+      <c r="AF30" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG30" s="13"/>
       <c r="AH30" s="12"/>
-      <c r="AI30" s="52"/>
+      <c r="AI30" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ30" s="13"/>
-      <c r="AK30" s="65"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="65"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="67"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="64"/>
       <c r="AQ30" s="12"/>
-      <c r="AR30" s="52"/>
+      <c r="AR30" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS30" s="13"/>
       <c r="AT30" s="12"/>
-      <c r="AU30" s="52"/>
+      <c r="AU30" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV30" s="13"/>
-      <c r="AW30" s="65"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="65"/>
-      <c r="BA30" s="66"/>
-      <c r="BB30" s="67"/>
-      <c r="BC30" s="71">
+      <c r="AW30" s="62"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="64"/>
+      <c r="AZ30" s="62"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="64"/>
+      <c r="BC30" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD30" s="72"/>
-      <c r="BE30" s="73"/>
+      <c r="BD30" s="66"/>
+      <c r="BE30" s="67"/>
       <c r="BF30" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10346,63 +10548,75 @@
         <v>10</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="64"/>
+      <c r="D31" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H31" s="156"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="73"/>
       <c r="S31" s="68"/>
       <c r="T31" s="69"/>
       <c r="U31" s="69"/>
       <c r="V31" s="69"/>
       <c r="W31" s="69"/>
       <c r="X31" s="70"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="63"/>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="63"/>
-      <c r="AC31" s="63"/>
-      <c r="AD31" s="64"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="72"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="73"/>
       <c r="AE31" s="12"/>
-      <c r="AF31" s="52"/>
+      <c r="AF31" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG31" s="13"/>
       <c r="AH31" s="12"/>
-      <c r="AI31" s="52"/>
+      <c r="AI31" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ31" s="13"/>
-      <c r="AK31" s="65"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="67"/>
-      <c r="AN31" s="65"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="67"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="64"/>
       <c r="AQ31" s="12"/>
-      <c r="AR31" s="52"/>
+      <c r="AR31" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS31" s="13"/>
       <c r="AT31" s="12"/>
-      <c r="AU31" s="52"/>
+      <c r="AU31" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV31" s="13"/>
-      <c r="AW31" s="65"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="67"/>
-      <c r="AZ31" s="65"/>
-      <c r="BA31" s="66"/>
-      <c r="BB31" s="67"/>
-      <c r="BC31" s="71">
+      <c r="AW31" s="62"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="64"/>
+      <c r="AZ31" s="62"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="64"/>
+      <c r="BC31" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD31" s="72"/>
-      <c r="BE31" s="73"/>
+      <c r="BD31" s="66"/>
+      <c r="BE31" s="67"/>
       <c r="BF31" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10421,63 +10635,75 @@
         <v>11</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="64"/>
+      <c r="D32" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="156"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H32" s="156"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="73"/>
       <c r="S32" s="68"/>
       <c r="T32" s="69"/>
       <c r="U32" s="69"/>
       <c r="V32" s="69"/>
       <c r="W32" s="69"/>
       <c r="X32" s="70"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="63"/>
-      <c r="AC32" s="63"/>
-      <c r="AD32" s="64"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="72"/>
+      <c r="AC32" s="72"/>
+      <c r="AD32" s="73"/>
       <c r="AE32" s="12"/>
-      <c r="AF32" s="52"/>
+      <c r="AF32" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AG32" s="13"/>
       <c r="AH32" s="12"/>
-      <c r="AI32" s="52"/>
+      <c r="AI32" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AJ32" s="13"/>
-      <c r="AK32" s="65"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="67"/>
-      <c r="AN32" s="65"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="67"/>
+      <c r="AK32" s="62"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="64"/>
       <c r="AQ32" s="12"/>
-      <c r="AR32" s="52"/>
+      <c r="AR32" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AS32" s="13"/>
       <c r="AT32" s="12"/>
-      <c r="AU32" s="52"/>
+      <c r="AU32" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="AV32" s="13"/>
-      <c r="AW32" s="65"/>
-      <c r="AX32" s="66"/>
-      <c r="AY32" s="67"/>
-      <c r="AZ32" s="65"/>
-      <c r="BA32" s="66"/>
-      <c r="BB32" s="67"/>
-      <c r="BC32" s="71">
+      <c r="AW32" s="62"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="64"/>
+      <c r="AZ32" s="62"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="64"/>
+      <c r="BC32" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD32" s="72"/>
-      <c r="BE32" s="73"/>
+      <c r="BD32" s="66"/>
+      <c r="BE32" s="67"/>
       <c r="BF32" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10496,33 +10722,37 @@
         <v>12</v>
       </c>
       <c r="C33" s="11"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="64"/>
+      <c r="D33" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="156"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H33" s="156"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="73"/>
       <c r="S33" s="68"/>
       <c r="T33" s="69"/>
       <c r="U33" s="69"/>
       <c r="V33" s="69"/>
       <c r="W33" s="69"/>
       <c r="X33" s="70"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="63"/>
-      <c r="AA33" s="63"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="63"/>
-      <c r="AD33" s="64"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="72"/>
+      <c r="AC33" s="72"/>
+      <c r="AD33" s="73"/>
       <c r="AE33" s="12"/>
       <c r="AF33" s="52" t="s">
         <v>48</v>
@@ -10533,12 +10763,12 @@
         <v>48</v>
       </c>
       <c r="AJ33" s="13"/>
-      <c r="AK33" s="65"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="65"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="67"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="64"/>
       <c r="AQ33" s="12"/>
       <c r="AR33" s="52" t="s">
         <v>48</v>
@@ -10549,18 +10779,18 @@
         <v>48</v>
       </c>
       <c r="AV33" s="13"/>
-      <c r="AW33" s="65"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="67"/>
-      <c r="AZ33" s="65"/>
-      <c r="BA33" s="66"/>
-      <c r="BB33" s="67"/>
-      <c r="BC33" s="71">
+      <c r="AW33" s="62"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="64"/>
+      <c r="AZ33" s="62"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="64"/>
+      <c r="BC33" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD33" s="72"/>
-      <c r="BE33" s="73"/>
+      <c r="BD33" s="66"/>
+      <c r="BE33" s="67"/>
       <c r="BF33" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10579,33 +10809,37 @@
         <v>13</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="64"/>
+      <c r="D34" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="156"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H34" s="156"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="73"/>
       <c r="S34" s="68"/>
       <c r="T34" s="69"/>
       <c r="U34" s="69"/>
       <c r="V34" s="69"/>
       <c r="W34" s="69"/>
       <c r="X34" s="70"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="63"/>
-      <c r="AD34" s="64"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="73"/>
       <c r="AE34" s="12"/>
       <c r="AF34" s="52" t="s">
         <v>48</v>
@@ -10616,12 +10850,12 @@
         <v>48</v>
       </c>
       <c r="AJ34" s="13"/>
-      <c r="AK34" s="65"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="67"/>
-      <c r="AN34" s="65"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="67"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="64"/>
       <c r="AQ34" s="12"/>
       <c r="AR34" s="52" t="s">
         <v>48</v>
@@ -10632,18 +10866,18 @@
         <v>48</v>
       </c>
       <c r="AV34" s="13"/>
-      <c r="AW34" s="65"/>
-      <c r="AX34" s="66"/>
-      <c r="AY34" s="67"/>
-      <c r="AZ34" s="65"/>
-      <c r="BA34" s="66"/>
-      <c r="BB34" s="67"/>
-      <c r="BC34" s="71">
+      <c r="AW34" s="62"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="62"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="64"/>
+      <c r="BC34" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD34" s="72"/>
-      <c r="BE34" s="73"/>
+      <c r="BD34" s="66"/>
+      <c r="BE34" s="67"/>
       <c r="BF34" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10662,33 +10896,37 @@
         <v>14</v>
       </c>
       <c r="C35" s="11"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="64"/>
+      <c r="D35" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="156"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="73"/>
       <c r="S35" s="68"/>
       <c r="T35" s="69"/>
       <c r="U35" s="69"/>
       <c r="V35" s="69"/>
       <c r="W35" s="69"/>
       <c r="X35" s="70"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="63"/>
-      <c r="AA35" s="63"/>
-      <c r="AB35" s="63"/>
-      <c r="AC35" s="63"/>
-      <c r="AD35" s="64"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="72"/>
+      <c r="AA35" s="72"/>
+      <c r="AB35" s="72"/>
+      <c r="AC35" s="72"/>
+      <c r="AD35" s="73"/>
       <c r="AE35" s="12"/>
       <c r="AF35" s="52" t="s">
         <v>48</v>
@@ -10699,12 +10937,12 @@
         <v>48</v>
       </c>
       <c r="AJ35" s="13"/>
-      <c r="AK35" s="65"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="67"/>
-      <c r="AN35" s="65"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="67"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="64"/>
       <c r="AQ35" s="12"/>
       <c r="AR35" s="52" t="s">
         <v>48</v>
@@ -10715,18 +10953,18 @@
         <v>48</v>
       </c>
       <c r="AV35" s="13"/>
-      <c r="AW35" s="65"/>
-      <c r="AX35" s="66"/>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="65"/>
-      <c r="BA35" s="66"/>
-      <c r="BB35" s="67"/>
-      <c r="BC35" s="71">
+      <c r="AW35" s="62"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="62"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="64"/>
+      <c r="BC35" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD35" s="72"/>
-      <c r="BE35" s="73"/>
+      <c r="BD35" s="66"/>
+      <c r="BE35" s="67"/>
       <c r="BF35" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10745,33 +10983,37 @@
         <v>15</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="64"/>
+      <c r="D36" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="156"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="73"/>
       <c r="S36" s="68"/>
       <c r="T36" s="69"/>
       <c r="U36" s="69"/>
       <c r="V36" s="69"/>
       <c r="W36" s="69"/>
       <c r="X36" s="70"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="63"/>
-      <c r="AA36" s="63"/>
-      <c r="AB36" s="63"/>
-      <c r="AC36" s="63"/>
-      <c r="AD36" s="64"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="73"/>
       <c r="AE36" s="12"/>
       <c r="AF36" s="52" t="s">
         <v>48</v>
@@ -10782,12 +11024,12 @@
         <v>48</v>
       </c>
       <c r="AJ36" s="13"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="67"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="63"/>
+      <c r="AP36" s="64"/>
       <c r="AQ36" s="12"/>
       <c r="AR36" s="52" t="s">
         <v>48</v>
@@ -10798,18 +11040,18 @@
         <v>48</v>
       </c>
       <c r="AV36" s="13"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="66"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="65"/>
-      <c r="BA36" s="66"/>
-      <c r="BB36" s="67"/>
-      <c r="BC36" s="71">
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="63"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="63"/>
+      <c r="BB36" s="64"/>
+      <c r="BC36" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD36" s="72"/>
-      <c r="BE36" s="73"/>
+      <c r="BD36" s="66"/>
+      <c r="BE36" s="67"/>
       <c r="BF36" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10828,33 +11070,37 @@
         <v>16</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="64"/>
+      <c r="D37" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="156"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H37" s="156"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="73"/>
       <c r="S37" s="68"/>
       <c r="T37" s="69"/>
       <c r="U37" s="69"/>
       <c r="V37" s="69"/>
       <c r="W37" s="69"/>
       <c r="X37" s="70"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="63"/>
-      <c r="AA37" s="63"/>
-      <c r="AB37" s="63"/>
-      <c r="AC37" s="63"/>
-      <c r="AD37" s="64"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="72"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="72"/>
+      <c r="AC37" s="72"/>
+      <c r="AD37" s="73"/>
       <c r="AE37" s="12"/>
       <c r="AF37" s="52" t="s">
         <v>48</v>
@@ -10865,12 +11111,12 @@
         <v>48</v>
       </c>
       <c r="AJ37" s="13"/>
-      <c r="AK37" s="65"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="67"/>
-      <c r="AN37" s="65"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="67"/>
+      <c r="AK37" s="62"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="62"/>
+      <c r="AO37" s="63"/>
+      <c r="AP37" s="64"/>
       <c r="AQ37" s="12"/>
       <c r="AR37" s="52" t="s">
         <v>48</v>
@@ -10881,18 +11127,18 @@
         <v>48</v>
       </c>
       <c r="AV37" s="13"/>
-      <c r="AW37" s="65"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="67"/>
-      <c r="AZ37" s="65"/>
-      <c r="BA37" s="66"/>
-      <c r="BB37" s="67"/>
-      <c r="BC37" s="71">
+      <c r="AW37" s="62"/>
+      <c r="AX37" s="63"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="62"/>
+      <c r="BA37" s="63"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD37" s="72"/>
-      <c r="BE37" s="73"/>
+      <c r="BD37" s="66"/>
+      <c r="BE37" s="67"/>
       <c r="BF37" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10911,33 +11157,37 @@
         <v>17</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="64"/>
+      <c r="D38" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="156"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H38" s="156"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73"/>
       <c r="S38" s="68"/>
       <c r="T38" s="69"/>
       <c r="U38" s="69"/>
       <c r="V38" s="69"/>
       <c r="W38" s="69"/>
       <c r="X38" s="70"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="63"/>
-      <c r="AA38" s="63"/>
-      <c r="AB38" s="63"/>
-      <c r="AC38" s="63"/>
-      <c r="AD38" s="64"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="72"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="72"/>
+      <c r="AC38" s="72"/>
+      <c r="AD38" s="73"/>
       <c r="AE38" s="12"/>
       <c r="AF38" s="52" t="s">
         <v>48</v>
@@ -10948,12 +11198,12 @@
         <v>48</v>
       </c>
       <c r="AJ38" s="13"/>
-      <c r="AK38" s="65"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="65"/>
-      <c r="AO38" s="66"/>
-      <c r="AP38" s="67"/>
+      <c r="AK38" s="62"/>
+      <c r="AL38" s="63"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="62"/>
+      <c r="AO38" s="63"/>
+      <c r="AP38" s="64"/>
       <c r="AQ38" s="12"/>
       <c r="AR38" s="52" t="s">
         <v>48</v>
@@ -10964,18 +11214,18 @@
         <v>48</v>
       </c>
       <c r="AV38" s="13"/>
-      <c r="AW38" s="65"/>
-      <c r="AX38" s="66"/>
-      <c r="AY38" s="67"/>
-      <c r="AZ38" s="65"/>
-      <c r="BA38" s="66"/>
-      <c r="BB38" s="67"/>
-      <c r="BC38" s="71">
+      <c r="AW38" s="62"/>
+      <c r="AX38" s="63"/>
+      <c r="AY38" s="64"/>
+      <c r="AZ38" s="62"/>
+      <c r="BA38" s="63"/>
+      <c r="BB38" s="64"/>
+      <c r="BC38" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD38" s="72"/>
-      <c r="BE38" s="73"/>
+      <c r="BD38" s="66"/>
+      <c r="BE38" s="67"/>
       <c r="BF38" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10994,33 +11244,37 @@
         <v>18</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="64"/>
+      <c r="D39" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="156"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H39" s="156"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="73"/>
       <c r="S39" s="68"/>
       <c r="T39" s="69"/>
       <c r="U39" s="69"/>
       <c r="V39" s="69"/>
       <c r="W39" s="69"/>
       <c r="X39" s="70"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="64"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="72"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="72"/>
+      <c r="AC39" s="72"/>
+      <c r="AD39" s="73"/>
       <c r="AE39" s="12"/>
       <c r="AF39" s="52" t="s">
         <v>48</v>
@@ -11031,12 +11285,12 @@
         <v>48</v>
       </c>
       <c r="AJ39" s="13"/>
-      <c r="AK39" s="65"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="65"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="67"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="63"/>
+      <c r="AP39" s="64"/>
       <c r="AQ39" s="12"/>
       <c r="AR39" s="52" t="s">
         <v>48</v>
@@ -11047,18 +11301,18 @@
         <v>48</v>
       </c>
       <c r="AV39" s="13"/>
-      <c r="AW39" s="65"/>
-      <c r="AX39" s="66"/>
-      <c r="AY39" s="67"/>
-      <c r="AZ39" s="65"/>
-      <c r="BA39" s="66"/>
-      <c r="BB39" s="67"/>
-      <c r="BC39" s="71">
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="64"/>
+      <c r="AZ39" s="62"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="64"/>
+      <c r="BC39" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD39" s="72"/>
-      <c r="BE39" s="73"/>
+      <c r="BD39" s="66"/>
+      <c r="BE39" s="67"/>
       <c r="BF39" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11077,33 +11331,37 @@
         <v>19</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="64"/>
+      <c r="D40" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="156"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H40" s="156"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="73"/>
       <c r="S40" s="68"/>
       <c r="T40" s="69"/>
       <c r="U40" s="69"/>
       <c r="V40" s="69"/>
       <c r="W40" s="69"/>
       <c r="X40" s="70"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="63"/>
-      <c r="AA40" s="63"/>
-      <c r="AB40" s="63"/>
-      <c r="AC40" s="63"/>
-      <c r="AD40" s="64"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="72"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="72"/>
+      <c r="AC40" s="72"/>
+      <c r="AD40" s="73"/>
       <c r="AE40" s="12"/>
       <c r="AF40" s="52" t="s">
         <v>48</v>
@@ -11114,12 +11372,12 @@
         <v>48</v>
       </c>
       <c r="AJ40" s="13"/>
-      <c r="AK40" s="65"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="67"/>
-      <c r="AN40" s="65"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="67"/>
+      <c r="AK40" s="62"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="64"/>
+      <c r="AN40" s="62"/>
+      <c r="AO40" s="63"/>
+      <c r="AP40" s="64"/>
       <c r="AQ40" s="12"/>
       <c r="AR40" s="52" t="s">
         <v>48</v>
@@ -11130,18 +11388,18 @@
         <v>48</v>
       </c>
       <c r="AV40" s="13"/>
-      <c r="AW40" s="65"/>
-      <c r="AX40" s="66"/>
-      <c r="AY40" s="67"/>
-      <c r="AZ40" s="65"/>
-      <c r="BA40" s="66"/>
-      <c r="BB40" s="67"/>
-      <c r="BC40" s="71">
+      <c r="AW40" s="62"/>
+      <c r="AX40" s="63"/>
+      <c r="AY40" s="64"/>
+      <c r="AZ40" s="62"/>
+      <c r="BA40" s="63"/>
+      <c r="BB40" s="64"/>
+      <c r="BC40" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD40" s="72"/>
-      <c r="BE40" s="73"/>
+      <c r="BD40" s="66"/>
+      <c r="BE40" s="67"/>
       <c r="BF40" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11160,33 +11418,37 @@
         <v>20</v>
       </c>
       <c r="C41" s="11"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="64"/>
+      <c r="D41" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="156"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H41" s="156"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="73"/>
       <c r="S41" s="68"/>
       <c r="T41" s="69"/>
       <c r="U41" s="69"/>
       <c r="V41" s="69"/>
       <c r="W41" s="69"/>
       <c r="X41" s="70"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="64"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="72"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="73"/>
       <c r="AE41" s="12"/>
       <c r="AF41" s="52" t="s">
         <v>48</v>
@@ -11197,12 +11459,12 @@
         <v>48</v>
       </c>
       <c r="AJ41" s="13"/>
-      <c r="AK41" s="65"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="67"/>
-      <c r="AN41" s="65"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="67"/>
+      <c r="AK41" s="62"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="64"/>
+      <c r="AN41" s="62"/>
+      <c r="AO41" s="63"/>
+      <c r="AP41" s="64"/>
       <c r="AQ41" s="12"/>
       <c r="AR41" s="52" t="s">
         <v>48</v>
@@ -11213,18 +11475,18 @@
         <v>48</v>
       </c>
       <c r="AV41" s="13"/>
-      <c r="AW41" s="65"/>
-      <c r="AX41" s="66"/>
-      <c r="AY41" s="67"/>
-      <c r="AZ41" s="65"/>
-      <c r="BA41" s="66"/>
-      <c r="BB41" s="67"/>
-      <c r="BC41" s="71">
+      <c r="AW41" s="62"/>
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="64"/>
+      <c r="AZ41" s="62"/>
+      <c r="BA41" s="63"/>
+      <c r="BB41" s="64"/>
+      <c r="BC41" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD41" s="72"/>
-      <c r="BE41" s="73"/>
+      <c r="BD41" s="66"/>
+      <c r="BE41" s="67"/>
       <c r="BF41" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11243,33 +11505,37 @@
         <v>21</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="64"/>
+      <c r="D42" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="156"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H42" s="156"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="73"/>
       <c r="S42" s="68"/>
       <c r="T42" s="69"/>
       <c r="U42" s="69"/>
       <c r="V42" s="69"/>
       <c r="W42" s="69"/>
       <c r="X42" s="70"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="63"/>
-      <c r="AA42" s="63"/>
-      <c r="AB42" s="63"/>
-      <c r="AC42" s="63"/>
-      <c r="AD42" s="64"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="73"/>
       <c r="AE42" s="12"/>
       <c r="AF42" s="52" t="s">
         <v>48</v>
@@ -11280,12 +11546,12 @@
         <v>48</v>
       </c>
       <c r="AJ42" s="13"/>
-      <c r="AK42" s="65"/>
-      <c r="AL42" s="66"/>
-      <c r="AM42" s="67"/>
-      <c r="AN42" s="65"/>
-      <c r="AO42" s="66"/>
-      <c r="AP42" s="67"/>
+      <c r="AK42" s="62"/>
+      <c r="AL42" s="63"/>
+      <c r="AM42" s="64"/>
+      <c r="AN42" s="62"/>
+      <c r="AO42" s="63"/>
+      <c r="AP42" s="64"/>
       <c r="AQ42" s="12"/>
       <c r="AR42" s="52" t="s">
         <v>48</v>
@@ -11296,18 +11562,18 @@
         <v>48</v>
       </c>
       <c r="AV42" s="13"/>
-      <c r="AW42" s="65"/>
-      <c r="AX42" s="66"/>
-      <c r="AY42" s="67"/>
-      <c r="AZ42" s="65"/>
-      <c r="BA42" s="66"/>
-      <c r="BB42" s="67"/>
-      <c r="BC42" s="71">
+      <c r="AW42" s="62"/>
+      <c r="AX42" s="63"/>
+      <c r="AY42" s="64"/>
+      <c r="AZ42" s="62"/>
+      <c r="BA42" s="63"/>
+      <c r="BB42" s="64"/>
+      <c r="BC42" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD42" s="72"/>
-      <c r="BE42" s="73"/>
+      <c r="BD42" s="66"/>
+      <c r="BE42" s="67"/>
       <c r="BF42" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11326,33 +11592,37 @@
         <v>22</v>
       </c>
       <c r="C43" s="11"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="64"/>
+      <c r="D43" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="156"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H43" s="156"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="73"/>
       <c r="S43" s="68"/>
       <c r="T43" s="69"/>
       <c r="U43" s="69"/>
       <c r="V43" s="69"/>
       <c r="W43" s="69"/>
       <c r="X43" s="70"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="63"/>
-      <c r="AA43" s="63"/>
-      <c r="AB43" s="63"/>
-      <c r="AC43" s="63"/>
-      <c r="AD43" s="64"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="72"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="73"/>
       <c r="AE43" s="12"/>
       <c r="AF43" s="52" t="s">
         <v>48</v>
@@ -11363,12 +11633,12 @@
         <v>48</v>
       </c>
       <c r="AJ43" s="13"/>
-      <c r="AK43" s="65"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="65"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="67"/>
+      <c r="AK43" s="62"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="64"/>
+      <c r="AN43" s="62"/>
+      <c r="AO43" s="63"/>
+      <c r="AP43" s="64"/>
       <c r="AQ43" s="12"/>
       <c r="AR43" s="52" t="s">
         <v>48</v>
@@ -11379,18 +11649,18 @@
         <v>48</v>
       </c>
       <c r="AV43" s="13"/>
-      <c r="AW43" s="65"/>
-      <c r="AX43" s="66"/>
-      <c r="AY43" s="67"/>
-      <c r="AZ43" s="65"/>
-      <c r="BA43" s="66"/>
-      <c r="BB43" s="67"/>
-      <c r="BC43" s="71">
+      <c r="AW43" s="62"/>
+      <c r="AX43" s="63"/>
+      <c r="AY43" s="64"/>
+      <c r="AZ43" s="62"/>
+      <c r="BA43" s="63"/>
+      <c r="BB43" s="64"/>
+      <c r="BC43" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD43" s="72"/>
-      <c r="BE43" s="73"/>
+      <c r="BD43" s="66"/>
+      <c r="BE43" s="67"/>
       <c r="BF43" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11409,33 +11679,37 @@
         <v>23</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="64"/>
+      <c r="D44" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="156"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H44" s="156"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="73"/>
       <c r="S44" s="68"/>
       <c r="T44" s="69"/>
       <c r="U44" s="69"/>
       <c r="V44" s="69"/>
       <c r="W44" s="69"/>
       <c r="X44" s="70"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="63"/>
-      <c r="AA44" s="63"/>
-      <c r="AB44" s="63"/>
-      <c r="AC44" s="63"/>
-      <c r="AD44" s="64"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="73"/>
       <c r="AE44" s="12"/>
       <c r="AF44" s="52" t="s">
         <v>48</v>
@@ -11446,12 +11720,12 @@
         <v>48</v>
       </c>
       <c r="AJ44" s="13"/>
-      <c r="AK44" s="65"/>
-      <c r="AL44" s="66"/>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="65"/>
-      <c r="AO44" s="66"/>
-      <c r="AP44" s="67"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="63"/>
+      <c r="AM44" s="64"/>
+      <c r="AN44" s="62"/>
+      <c r="AO44" s="63"/>
+      <c r="AP44" s="64"/>
       <c r="AQ44" s="12"/>
       <c r="AR44" s="52" t="s">
         <v>48</v>
@@ -11462,18 +11736,18 @@
         <v>48</v>
       </c>
       <c r="AV44" s="13"/>
-      <c r="AW44" s="65"/>
-      <c r="AX44" s="66"/>
-      <c r="AY44" s="67"/>
-      <c r="AZ44" s="65"/>
-      <c r="BA44" s="66"/>
-      <c r="BB44" s="67"/>
-      <c r="BC44" s="71">
+      <c r="AW44" s="62"/>
+      <c r="AX44" s="63"/>
+      <c r="AY44" s="64"/>
+      <c r="AZ44" s="62"/>
+      <c r="BA44" s="63"/>
+      <c r="BB44" s="64"/>
+      <c r="BC44" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD44" s="72"/>
-      <c r="BE44" s="73"/>
+      <c r="BD44" s="66"/>
+      <c r="BE44" s="67"/>
       <c r="BF44" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11492,33 +11766,37 @@
         <v>24</v>
       </c>
       <c r="C45" s="11"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="64"/>
+      <c r="D45" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="156"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H45" s="156"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="73"/>
       <c r="S45" s="68"/>
       <c r="T45" s="69"/>
       <c r="U45" s="69"/>
       <c r="V45" s="69"/>
       <c r="W45" s="69"/>
       <c r="X45" s="70"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="63"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="63"/>
-      <c r="AC45" s="63"/>
-      <c r="AD45" s="64"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
+      <c r="AC45" s="72"/>
+      <c r="AD45" s="73"/>
       <c r="AE45" s="12"/>
       <c r="AF45" s="52" t="s">
         <v>48</v>
@@ -11529,12 +11807,12 @@
         <v>48</v>
       </c>
       <c r="AJ45" s="13"/>
-      <c r="AK45" s="65"/>
-      <c r="AL45" s="66"/>
-      <c r="AM45" s="67"/>
-      <c r="AN45" s="65"/>
-      <c r="AO45" s="66"/>
-      <c r="AP45" s="67"/>
+      <c r="AK45" s="62"/>
+      <c r="AL45" s="63"/>
+      <c r="AM45" s="64"/>
+      <c r="AN45" s="62"/>
+      <c r="AO45" s="63"/>
+      <c r="AP45" s="64"/>
       <c r="AQ45" s="12"/>
       <c r="AR45" s="52" t="s">
         <v>48</v>
@@ -11545,18 +11823,18 @@
         <v>48</v>
       </c>
       <c r="AV45" s="13"/>
-      <c r="AW45" s="65"/>
-      <c r="AX45" s="66"/>
-      <c r="AY45" s="67"/>
-      <c r="AZ45" s="65"/>
-      <c r="BA45" s="66"/>
-      <c r="BB45" s="67"/>
-      <c r="BC45" s="71">
+      <c r="AW45" s="62"/>
+      <c r="AX45" s="63"/>
+      <c r="AY45" s="64"/>
+      <c r="AZ45" s="62"/>
+      <c r="BA45" s="63"/>
+      <c r="BB45" s="64"/>
+      <c r="BC45" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD45" s="72"/>
-      <c r="BE45" s="73"/>
+      <c r="BD45" s="66"/>
+      <c r="BE45" s="67"/>
       <c r="BF45" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11575,33 +11853,37 @@
         <v>25</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="63"/>
-      <c r="R46" s="64"/>
+      <c r="D46" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="156"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H46" s="156"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="73"/>
       <c r="S46" s="68"/>
       <c r="T46" s="69"/>
       <c r="U46" s="69"/>
       <c r="V46" s="69"/>
       <c r="W46" s="69"/>
       <c r="X46" s="70"/>
-      <c r="Y46" s="62"/>
-      <c r="Z46" s="63"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="63"/>
-      <c r="AC46" s="63"/>
-      <c r="AD46" s="64"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="72"/>
+      <c r="AD46" s="73"/>
       <c r="AE46" s="12"/>
       <c r="AF46" s="52" t="s">
         <v>48</v>
@@ -11612,12 +11894,12 @@
         <v>48</v>
       </c>
       <c r="AJ46" s="13"/>
-      <c r="AK46" s="65"/>
-      <c r="AL46" s="66"/>
-      <c r="AM46" s="67"/>
-      <c r="AN46" s="65"/>
-      <c r="AO46" s="66"/>
-      <c r="AP46" s="67"/>
+      <c r="AK46" s="62"/>
+      <c r="AL46" s="63"/>
+      <c r="AM46" s="64"/>
+      <c r="AN46" s="62"/>
+      <c r="AO46" s="63"/>
+      <c r="AP46" s="64"/>
       <c r="AQ46" s="12"/>
       <c r="AR46" s="52" t="s">
         <v>48</v>
@@ -11628,18 +11910,18 @@
         <v>48</v>
       </c>
       <c r="AV46" s="13"/>
-      <c r="AW46" s="65"/>
-      <c r="AX46" s="66"/>
-      <c r="AY46" s="67"/>
-      <c r="AZ46" s="65"/>
-      <c r="BA46" s="66"/>
-      <c r="BB46" s="67"/>
-      <c r="BC46" s="71">
+      <c r="AW46" s="62"/>
+      <c r="AX46" s="63"/>
+      <c r="AY46" s="64"/>
+      <c r="AZ46" s="62"/>
+      <c r="BA46" s="63"/>
+      <c r="BB46" s="64"/>
+      <c r="BC46" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD46" s="72"/>
-      <c r="BE46" s="73"/>
+      <c r="BD46" s="66"/>
+      <c r="BE46" s="67"/>
       <c r="BF46" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11658,33 +11940,37 @@
         <v>26</v>
       </c>
       <c r="C47" s="11"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="64"/>
+      <c r="D47" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="156"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H47" s="156"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="73"/>
       <c r="S47" s="68"/>
       <c r="T47" s="69"/>
       <c r="U47" s="69"/>
       <c r="V47" s="69"/>
       <c r="W47" s="69"/>
       <c r="X47" s="70"/>
-      <c r="Y47" s="62"/>
-      <c r="Z47" s="63"/>
-      <c r="AA47" s="63"/>
-      <c r="AB47" s="63"/>
-      <c r="AC47" s="63"/>
-      <c r="AD47" s="64"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="72"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="73"/>
       <c r="AE47" s="12"/>
       <c r="AF47" s="52" t="s">
         <v>48</v>
@@ -11695,12 +11981,12 @@
         <v>48</v>
       </c>
       <c r="AJ47" s="13"/>
-      <c r="AK47" s="65"/>
-      <c r="AL47" s="66"/>
-      <c r="AM47" s="67"/>
-      <c r="AN47" s="65"/>
-      <c r="AO47" s="66"/>
-      <c r="AP47" s="67"/>
+      <c r="AK47" s="62"/>
+      <c r="AL47" s="63"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="62"/>
+      <c r="AO47" s="63"/>
+      <c r="AP47" s="64"/>
       <c r="AQ47" s="12"/>
       <c r="AR47" s="52" t="s">
         <v>48</v>
@@ -11711,18 +11997,18 @@
         <v>48</v>
       </c>
       <c r="AV47" s="13"/>
-      <c r="AW47" s="65"/>
-      <c r="AX47" s="66"/>
-      <c r="AY47" s="67"/>
-      <c r="AZ47" s="65"/>
-      <c r="BA47" s="66"/>
-      <c r="BB47" s="67"/>
-      <c r="BC47" s="71">
+      <c r="AW47" s="62"/>
+      <c r="AX47" s="63"/>
+      <c r="AY47" s="64"/>
+      <c r="AZ47" s="62"/>
+      <c r="BA47" s="63"/>
+      <c r="BB47" s="64"/>
+      <c r="BC47" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD47" s="72"/>
-      <c r="BE47" s="73"/>
+      <c r="BD47" s="66"/>
+      <c r="BE47" s="67"/>
       <c r="BF47" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11741,33 +12027,37 @@
         <v>27</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="64"/>
+      <c r="D48" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="156"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H48" s="156"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="73"/>
       <c r="S48" s="68"/>
       <c r="T48" s="69"/>
       <c r="U48" s="69"/>
       <c r="V48" s="69"/>
       <c r="W48" s="69"/>
       <c r="X48" s="70"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="63"/>
-      <c r="AC48" s="63"/>
-      <c r="AD48" s="64"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="73"/>
       <c r="AE48" s="12"/>
       <c r="AF48" s="52" t="s">
         <v>48</v>
@@ -11778,12 +12068,12 @@
         <v>48</v>
       </c>
       <c r="AJ48" s="13"/>
-      <c r="AK48" s="65"/>
-      <c r="AL48" s="66"/>
-      <c r="AM48" s="67"/>
-      <c r="AN48" s="65"/>
-      <c r="AO48" s="66"/>
-      <c r="AP48" s="67"/>
+      <c r="AK48" s="62"/>
+      <c r="AL48" s="63"/>
+      <c r="AM48" s="64"/>
+      <c r="AN48" s="62"/>
+      <c r="AO48" s="63"/>
+      <c r="AP48" s="64"/>
       <c r="AQ48" s="12"/>
       <c r="AR48" s="52" t="s">
         <v>48</v>
@@ -11794,18 +12084,18 @@
         <v>48</v>
       </c>
       <c r="AV48" s="13"/>
-      <c r="AW48" s="65"/>
-      <c r="AX48" s="66"/>
-      <c r="AY48" s="67"/>
-      <c r="AZ48" s="65"/>
-      <c r="BA48" s="66"/>
-      <c r="BB48" s="67"/>
-      <c r="BC48" s="71">
+      <c r="AW48" s="62"/>
+      <c r="AX48" s="63"/>
+      <c r="AY48" s="64"/>
+      <c r="AZ48" s="62"/>
+      <c r="BA48" s="63"/>
+      <c r="BB48" s="64"/>
+      <c r="BC48" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD48" s="72"/>
-      <c r="BE48" s="73"/>
+      <c r="BD48" s="66"/>
+      <c r="BE48" s="67"/>
       <c r="BF48" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11824,33 +12114,37 @@
         <v>28</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="64"/>
+      <c r="D49" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" s="156"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H49" s="156"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="73"/>
       <c r="S49" s="68"/>
       <c r="T49" s="69"/>
       <c r="U49" s="69"/>
       <c r="V49" s="69"/>
       <c r="W49" s="69"/>
       <c r="X49" s="70"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="63"/>
-      <c r="AA49" s="63"/>
-      <c r="AB49" s="63"/>
-      <c r="AC49" s="63"/>
-      <c r="AD49" s="64"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="72"/>
+      <c r="AA49" s="72"/>
+      <c r="AB49" s="72"/>
+      <c r="AC49" s="72"/>
+      <c r="AD49" s="73"/>
       <c r="AE49" s="12"/>
       <c r="AF49" s="52" t="s">
         <v>48</v>
@@ -11861,12 +12155,12 @@
         <v>48</v>
       </c>
       <c r="AJ49" s="13"/>
-      <c r="AK49" s="65"/>
-      <c r="AL49" s="66"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="65"/>
-      <c r="AO49" s="66"/>
-      <c r="AP49" s="67"/>
+      <c r="AK49" s="62"/>
+      <c r="AL49" s="63"/>
+      <c r="AM49" s="64"/>
+      <c r="AN49" s="62"/>
+      <c r="AO49" s="63"/>
+      <c r="AP49" s="64"/>
       <c r="AQ49" s="12"/>
       <c r="AR49" s="52" t="s">
         <v>48</v>
@@ -11877,18 +12171,18 @@
         <v>48</v>
       </c>
       <c r="AV49" s="13"/>
-      <c r="AW49" s="65"/>
-      <c r="AX49" s="66"/>
-      <c r="AY49" s="67"/>
-      <c r="AZ49" s="65"/>
-      <c r="BA49" s="66"/>
-      <c r="BB49" s="67"/>
-      <c r="BC49" s="71">
+      <c r="AW49" s="62"/>
+      <c r="AX49" s="63"/>
+      <c r="AY49" s="64"/>
+      <c r="AZ49" s="62"/>
+      <c r="BA49" s="63"/>
+      <c r="BB49" s="64"/>
+      <c r="BC49" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD49" s="72"/>
-      <c r="BE49" s="73"/>
+      <c r="BD49" s="66"/>
+      <c r="BE49" s="67"/>
       <c r="BF49" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11907,33 +12201,37 @@
         <v>29</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="74"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="64"/>
+      <c r="D50" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="156"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H50" s="156"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="73"/>
       <c r="S50" s="68"/>
       <c r="T50" s="69"/>
       <c r="U50" s="69"/>
       <c r="V50" s="69"/>
       <c r="W50" s="69"/>
       <c r="X50" s="70"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="64"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="72"/>
+      <c r="AA50" s="72"/>
+      <c r="AB50" s="72"/>
+      <c r="AC50" s="72"/>
+      <c r="AD50" s="73"/>
       <c r="AE50" s="12"/>
       <c r="AF50" s="52" t="s">
         <v>48</v>
@@ -11944,12 +12242,12 @@
         <v>48</v>
       </c>
       <c r="AJ50" s="13"/>
-      <c r="AK50" s="65"/>
-      <c r="AL50" s="66"/>
-      <c r="AM50" s="67"/>
-      <c r="AN50" s="65"/>
-      <c r="AO50" s="66"/>
-      <c r="AP50" s="67"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="63"/>
+      <c r="AM50" s="64"/>
+      <c r="AN50" s="62"/>
+      <c r="AO50" s="63"/>
+      <c r="AP50" s="64"/>
       <c r="AQ50" s="12"/>
       <c r="AR50" s="52" t="s">
         <v>48</v>
@@ -11960,18 +12258,18 @@
         <v>48</v>
       </c>
       <c r="AV50" s="13"/>
-      <c r="AW50" s="65"/>
-      <c r="AX50" s="66"/>
-      <c r="AY50" s="67"/>
-      <c r="AZ50" s="65"/>
-      <c r="BA50" s="66"/>
-      <c r="BB50" s="67"/>
-      <c r="BC50" s="71">
+      <c r="AW50" s="62"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="64"/>
+      <c r="AZ50" s="62"/>
+      <c r="BA50" s="63"/>
+      <c r="BB50" s="64"/>
+      <c r="BC50" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD50" s="72"/>
-      <c r="BE50" s="73"/>
+      <c r="BD50" s="66"/>
+      <c r="BE50" s="67"/>
       <c r="BF50" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -11990,33 +12288,37 @@
         <v>30</v>
       </c>
       <c r="C51" s="11"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="64"/>
+      <c r="D51" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="156"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H51" s="156"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="73"/>
       <c r="S51" s="68"/>
       <c r="T51" s="69"/>
       <c r="U51" s="69"/>
       <c r="V51" s="69"/>
       <c r="W51" s="69"/>
       <c r="X51" s="70"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="63"/>
-      <c r="AA51" s="63"/>
-      <c r="AB51" s="63"/>
-      <c r="AC51" s="63"/>
-      <c r="AD51" s="64"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="72"/>
+      <c r="AA51" s="72"/>
+      <c r="AB51" s="72"/>
+      <c r="AC51" s="72"/>
+      <c r="AD51" s="73"/>
       <c r="AE51" s="12"/>
       <c r="AF51" s="52" t="s">
         <v>48</v>
@@ -12027,12 +12329,12 @@
         <v>48</v>
       </c>
       <c r="AJ51" s="13"/>
-      <c r="AK51" s="65"/>
-      <c r="AL51" s="66"/>
-      <c r="AM51" s="67"/>
-      <c r="AN51" s="65"/>
-      <c r="AO51" s="66"/>
-      <c r="AP51" s="67"/>
+      <c r="AK51" s="62"/>
+      <c r="AL51" s="63"/>
+      <c r="AM51" s="64"/>
+      <c r="AN51" s="62"/>
+      <c r="AO51" s="63"/>
+      <c r="AP51" s="64"/>
       <c r="AQ51" s="12"/>
       <c r="AR51" s="52" t="s">
         <v>48</v>
@@ -12043,18 +12345,18 @@
         <v>48</v>
       </c>
       <c r="AV51" s="13"/>
-      <c r="AW51" s="65"/>
-      <c r="AX51" s="66"/>
-      <c r="AY51" s="67"/>
-      <c r="AZ51" s="65"/>
-      <c r="BA51" s="66"/>
-      <c r="BB51" s="67"/>
-      <c r="BC51" s="71">
+      <c r="AW51" s="62"/>
+      <c r="AX51" s="63"/>
+      <c r="AY51" s="64"/>
+      <c r="AZ51" s="62"/>
+      <c r="BA51" s="63"/>
+      <c r="BB51" s="64"/>
+      <c r="BC51" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD51" s="72"/>
-      <c r="BE51" s="73"/>
+      <c r="BD51" s="66"/>
+      <c r="BE51" s="67"/>
       <c r="BF51" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12073,33 +12375,37 @@
         <v>31</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="74"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="64"/>
+      <c r="D52" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="156"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H52" s="156"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="75"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="73"/>
       <c r="S52" s="68"/>
       <c r="T52" s="69"/>
       <c r="U52" s="69"/>
       <c r="V52" s="69"/>
       <c r="W52" s="69"/>
       <c r="X52" s="70"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="63"/>
-      <c r="AA52" s="63"/>
-      <c r="AB52" s="63"/>
-      <c r="AC52" s="63"/>
-      <c r="AD52" s="64"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="72"/>
+      <c r="AA52" s="72"/>
+      <c r="AB52" s="72"/>
+      <c r="AC52" s="72"/>
+      <c r="AD52" s="73"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="52" t="s">
         <v>48</v>
@@ -12110,12 +12416,12 @@
         <v>48</v>
       </c>
       <c r="AJ52" s="13"/>
-      <c r="AK52" s="65"/>
-      <c r="AL52" s="66"/>
-      <c r="AM52" s="67"/>
-      <c r="AN52" s="65"/>
-      <c r="AO52" s="66"/>
-      <c r="AP52" s="67"/>
+      <c r="AK52" s="62"/>
+      <c r="AL52" s="63"/>
+      <c r="AM52" s="64"/>
+      <c r="AN52" s="62"/>
+      <c r="AO52" s="63"/>
+      <c r="AP52" s="64"/>
       <c r="AQ52" s="12"/>
       <c r="AR52" s="52" t="s">
         <v>48</v>
@@ -12126,18 +12432,18 @@
         <v>48</v>
       </c>
       <c r="AV52" s="13"/>
-      <c r="AW52" s="65"/>
-      <c r="AX52" s="66"/>
-      <c r="AY52" s="67"/>
-      <c r="AZ52" s="65"/>
-      <c r="BA52" s="66"/>
-      <c r="BB52" s="67"/>
-      <c r="BC52" s="71">
+      <c r="AW52" s="62"/>
+      <c r="AX52" s="63"/>
+      <c r="AY52" s="64"/>
+      <c r="AZ52" s="62"/>
+      <c r="BA52" s="63"/>
+      <c r="BB52" s="64"/>
+      <c r="BC52" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD52" s="72"/>
-      <c r="BE52" s="73"/>
+      <c r="BD52" s="66"/>
+      <c r="BE52" s="67"/>
       <c r="BF52" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12156,33 +12462,37 @@
         <v>32</v>
       </c>
       <c r="C53" s="11"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="64"/>
+      <c r="D53" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="156"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H53" s="156"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="73"/>
       <c r="S53" s="68"/>
       <c r="T53" s="69"/>
       <c r="U53" s="69"/>
       <c r="V53" s="69"/>
       <c r="W53" s="69"/>
       <c r="X53" s="70"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="63"/>
-      <c r="AA53" s="63"/>
-      <c r="AB53" s="63"/>
-      <c r="AC53" s="63"/>
-      <c r="AD53" s="64"/>
+      <c r="Y53" s="71"/>
+      <c r="Z53" s="72"/>
+      <c r="AA53" s="72"/>
+      <c r="AB53" s="72"/>
+      <c r="AC53" s="72"/>
+      <c r="AD53" s="73"/>
       <c r="AE53" s="12"/>
       <c r="AF53" s="52" t="s">
         <v>48</v>
@@ -12193,12 +12503,12 @@
         <v>48</v>
       </c>
       <c r="AJ53" s="13"/>
-      <c r="AK53" s="65"/>
-      <c r="AL53" s="66"/>
-      <c r="AM53" s="67"/>
-      <c r="AN53" s="65"/>
-      <c r="AO53" s="66"/>
-      <c r="AP53" s="67"/>
+      <c r="AK53" s="62"/>
+      <c r="AL53" s="63"/>
+      <c r="AM53" s="64"/>
+      <c r="AN53" s="62"/>
+      <c r="AO53" s="63"/>
+      <c r="AP53" s="64"/>
       <c r="AQ53" s="12"/>
       <c r="AR53" s="52" t="s">
         <v>48</v>
@@ -12209,18 +12519,18 @@
         <v>48</v>
       </c>
       <c r="AV53" s="13"/>
-      <c r="AW53" s="65"/>
-      <c r="AX53" s="66"/>
-      <c r="AY53" s="67"/>
-      <c r="AZ53" s="65"/>
-      <c r="BA53" s="66"/>
-      <c r="BB53" s="67"/>
-      <c r="BC53" s="71">
+      <c r="AW53" s="62"/>
+      <c r="AX53" s="63"/>
+      <c r="AY53" s="64"/>
+      <c r="AZ53" s="62"/>
+      <c r="BA53" s="63"/>
+      <c r="BB53" s="64"/>
+      <c r="BC53" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD53" s="72"/>
-      <c r="BE53" s="73"/>
+      <c r="BD53" s="66"/>
+      <c r="BE53" s="67"/>
       <c r="BF53" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12239,33 +12549,37 @@
         <v>33</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="74"/>
-      <c r="E54" s="75"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="64"/>
+      <c r="D54" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" s="156"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H54" s="156"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="73"/>
       <c r="S54" s="68"/>
       <c r="T54" s="69"/>
       <c r="U54" s="69"/>
       <c r="V54" s="69"/>
       <c r="W54" s="69"/>
       <c r="X54" s="70"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="63"/>
-      <c r="AA54" s="63"/>
-      <c r="AB54" s="63"/>
-      <c r="AC54" s="63"/>
-      <c r="AD54" s="64"/>
+      <c r="Y54" s="71"/>
+      <c r="Z54" s="72"/>
+      <c r="AA54" s="72"/>
+      <c r="AB54" s="72"/>
+      <c r="AC54" s="72"/>
+      <c r="AD54" s="73"/>
       <c r="AE54" s="12"/>
       <c r="AF54" s="52" t="s">
         <v>48</v>
@@ -12276,12 +12590,12 @@
         <v>48</v>
       </c>
       <c r="AJ54" s="13"/>
-      <c r="AK54" s="65"/>
-      <c r="AL54" s="66"/>
-      <c r="AM54" s="67"/>
-      <c r="AN54" s="65"/>
-      <c r="AO54" s="66"/>
-      <c r="AP54" s="67"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="63"/>
+      <c r="AM54" s="64"/>
+      <c r="AN54" s="62"/>
+      <c r="AO54" s="63"/>
+      <c r="AP54" s="64"/>
       <c r="AQ54" s="12"/>
       <c r="AR54" s="52" t="s">
         <v>48</v>
@@ -12292,18 +12606,18 @@
         <v>48</v>
       </c>
       <c r="AV54" s="13"/>
-      <c r="AW54" s="65"/>
-      <c r="AX54" s="66"/>
-      <c r="AY54" s="67"/>
-      <c r="AZ54" s="65"/>
-      <c r="BA54" s="66"/>
-      <c r="BB54" s="67"/>
-      <c r="BC54" s="71">
+      <c r="AW54" s="62"/>
+      <c r="AX54" s="63"/>
+      <c r="AY54" s="64"/>
+      <c r="AZ54" s="62"/>
+      <c r="BA54" s="63"/>
+      <c r="BB54" s="64"/>
+      <c r="BC54" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD54" s="72"/>
-      <c r="BE54" s="73"/>
+      <c r="BD54" s="66"/>
+      <c r="BE54" s="67"/>
       <c r="BF54" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12322,33 +12636,37 @@
         <v>34</v>
       </c>
       <c r="C55" s="11"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="64"/>
+      <c r="D55" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" s="156"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H55" s="156"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="76"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="72"/>
+      <c r="R55" s="73"/>
       <c r="S55" s="68"/>
       <c r="T55" s="69"/>
       <c r="U55" s="69"/>
       <c r="V55" s="69"/>
       <c r="W55" s="69"/>
       <c r="X55" s="70"/>
-      <c r="Y55" s="62"/>
-      <c r="Z55" s="63"/>
-      <c r="AA55" s="63"/>
-      <c r="AB55" s="63"/>
-      <c r="AC55" s="63"/>
-      <c r="AD55" s="64"/>
+      <c r="Y55" s="71"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="72"/>
+      <c r="AC55" s="72"/>
+      <c r="AD55" s="73"/>
       <c r="AE55" s="12"/>
       <c r="AF55" s="52" t="s">
         <v>48</v>
@@ -12359,12 +12677,12 @@
         <v>48</v>
       </c>
       <c r="AJ55" s="13"/>
-      <c r="AK55" s="65"/>
-      <c r="AL55" s="66"/>
-      <c r="AM55" s="67"/>
-      <c r="AN55" s="65"/>
-      <c r="AO55" s="66"/>
-      <c r="AP55" s="67"/>
+      <c r="AK55" s="62"/>
+      <c r="AL55" s="63"/>
+      <c r="AM55" s="64"/>
+      <c r="AN55" s="62"/>
+      <c r="AO55" s="63"/>
+      <c r="AP55" s="64"/>
       <c r="AQ55" s="12"/>
       <c r="AR55" s="52" t="s">
         <v>48</v>
@@ -12375,18 +12693,18 @@
         <v>48</v>
       </c>
       <c r="AV55" s="13"/>
-      <c r="AW55" s="65"/>
-      <c r="AX55" s="66"/>
-      <c r="AY55" s="67"/>
-      <c r="AZ55" s="65"/>
-      <c r="BA55" s="66"/>
-      <c r="BB55" s="67"/>
-      <c r="BC55" s="71">
+      <c r="AW55" s="62"/>
+      <c r="AX55" s="63"/>
+      <c r="AY55" s="64"/>
+      <c r="AZ55" s="62"/>
+      <c r="BA55" s="63"/>
+      <c r="BB55" s="64"/>
+      <c r="BC55" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD55" s="72"/>
-      <c r="BE55" s="73"/>
+      <c r="BD55" s="66"/>
+      <c r="BE55" s="67"/>
       <c r="BF55" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12405,33 +12723,37 @@
         <v>35</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="64"/>
+      <c r="D56" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="156"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H56" s="156"/>
+      <c r="I56" s="157"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="76"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="72"/>
+      <c r="R56" s="73"/>
       <c r="S56" s="68"/>
       <c r="T56" s="69"/>
       <c r="U56" s="69"/>
       <c r="V56" s="69"/>
       <c r="W56" s="69"/>
       <c r="X56" s="70"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="63"/>
-      <c r="AA56" s="63"/>
-      <c r="AB56" s="63"/>
-      <c r="AC56" s="63"/>
-      <c r="AD56" s="64"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="72"/>
+      <c r="AA56" s="72"/>
+      <c r="AB56" s="72"/>
+      <c r="AC56" s="72"/>
+      <c r="AD56" s="73"/>
       <c r="AE56" s="12"/>
       <c r="AF56" s="52" t="s">
         <v>48</v>
@@ -12442,12 +12764,12 @@
         <v>48</v>
       </c>
       <c r="AJ56" s="13"/>
-      <c r="AK56" s="65"/>
-      <c r="AL56" s="66"/>
-      <c r="AM56" s="67"/>
-      <c r="AN56" s="65"/>
-      <c r="AO56" s="66"/>
-      <c r="AP56" s="67"/>
+      <c r="AK56" s="62"/>
+      <c r="AL56" s="63"/>
+      <c r="AM56" s="64"/>
+      <c r="AN56" s="62"/>
+      <c r="AO56" s="63"/>
+      <c r="AP56" s="64"/>
       <c r="AQ56" s="12"/>
       <c r="AR56" s="52" t="s">
         <v>48</v>
@@ -12458,18 +12780,18 @@
         <v>48</v>
       </c>
       <c r="AV56" s="13"/>
-      <c r="AW56" s="65"/>
-      <c r="AX56" s="66"/>
-      <c r="AY56" s="67"/>
-      <c r="AZ56" s="65"/>
-      <c r="BA56" s="66"/>
-      <c r="BB56" s="67"/>
-      <c r="BC56" s="71">
+      <c r="AW56" s="62"/>
+      <c r="AX56" s="63"/>
+      <c r="AY56" s="64"/>
+      <c r="AZ56" s="62"/>
+      <c r="BA56" s="63"/>
+      <c r="BB56" s="64"/>
+      <c r="BC56" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD56" s="72"/>
-      <c r="BE56" s="73"/>
+      <c r="BD56" s="66"/>
+      <c r="BE56" s="67"/>
       <c r="BF56" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12488,33 +12810,37 @@
         <v>36</v>
       </c>
       <c r="C57" s="11"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="63"/>
-      <c r="Q57" s="63"/>
-      <c r="R57" s="64"/>
+      <c r="D57" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="156"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H57" s="156"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="72"/>
+      <c r="R57" s="73"/>
       <c r="S57" s="68"/>
       <c r="T57" s="69"/>
       <c r="U57" s="69"/>
       <c r="V57" s="69"/>
       <c r="W57" s="69"/>
       <c r="X57" s="70"/>
-      <c r="Y57" s="62"/>
-      <c r="Z57" s="63"/>
-      <c r="AA57" s="63"/>
-      <c r="AB57" s="63"/>
-      <c r="AC57" s="63"/>
-      <c r="AD57" s="64"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="72"/>
+      <c r="AA57" s="72"/>
+      <c r="AB57" s="72"/>
+      <c r="AC57" s="72"/>
+      <c r="AD57" s="73"/>
       <c r="AE57" s="12"/>
       <c r="AF57" s="52" t="s">
         <v>48</v>
@@ -12525,12 +12851,12 @@
         <v>48</v>
       </c>
       <c r="AJ57" s="13"/>
-      <c r="AK57" s="65"/>
-      <c r="AL57" s="66"/>
-      <c r="AM57" s="67"/>
-      <c r="AN57" s="65"/>
-      <c r="AO57" s="66"/>
-      <c r="AP57" s="67"/>
+      <c r="AK57" s="62"/>
+      <c r="AL57" s="63"/>
+      <c r="AM57" s="64"/>
+      <c r="AN57" s="62"/>
+      <c r="AO57" s="63"/>
+      <c r="AP57" s="64"/>
       <c r="AQ57" s="12"/>
       <c r="AR57" s="52" t="s">
         <v>48</v>
@@ -12541,18 +12867,18 @@
         <v>48</v>
       </c>
       <c r="AV57" s="13"/>
-      <c r="AW57" s="65"/>
-      <c r="AX57" s="66"/>
-      <c r="AY57" s="67"/>
-      <c r="AZ57" s="65"/>
-      <c r="BA57" s="66"/>
-      <c r="BB57" s="67"/>
-      <c r="BC57" s="71">
+      <c r="AW57" s="62"/>
+      <c r="AX57" s="63"/>
+      <c r="AY57" s="64"/>
+      <c r="AZ57" s="62"/>
+      <c r="BA57" s="63"/>
+      <c r="BB57" s="64"/>
+      <c r="BC57" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD57" s="72"/>
-      <c r="BE57" s="73"/>
+      <c r="BD57" s="66"/>
+      <c r="BE57" s="67"/>
       <c r="BF57" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12571,33 +12897,37 @@
         <v>37</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="64"/>
+      <c r="D58" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="156"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H58" s="156"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="72"/>
+      <c r="R58" s="73"/>
       <c r="S58" s="68"/>
       <c r="T58" s="69"/>
       <c r="U58" s="69"/>
       <c r="V58" s="69"/>
       <c r="W58" s="69"/>
       <c r="X58" s="70"/>
-      <c r="Y58" s="62"/>
-      <c r="Z58" s="63"/>
-      <c r="AA58" s="63"/>
-      <c r="AB58" s="63"/>
-      <c r="AC58" s="63"/>
-      <c r="AD58" s="64"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="72"/>
+      <c r="AA58" s="72"/>
+      <c r="AB58" s="72"/>
+      <c r="AC58" s="72"/>
+      <c r="AD58" s="73"/>
       <c r="AE58" s="12"/>
       <c r="AF58" s="52" t="s">
         <v>48</v>
@@ -12608,12 +12938,12 @@
         <v>48</v>
       </c>
       <c r="AJ58" s="13"/>
-      <c r="AK58" s="65"/>
-      <c r="AL58" s="66"/>
-      <c r="AM58" s="67"/>
-      <c r="AN58" s="65"/>
-      <c r="AO58" s="66"/>
-      <c r="AP58" s="67"/>
+      <c r="AK58" s="62"/>
+      <c r="AL58" s="63"/>
+      <c r="AM58" s="64"/>
+      <c r="AN58" s="62"/>
+      <c r="AO58" s="63"/>
+      <c r="AP58" s="64"/>
       <c r="AQ58" s="12"/>
       <c r="AR58" s="52" t="s">
         <v>48</v>
@@ -12624,18 +12954,18 @@
         <v>48</v>
       </c>
       <c r="AV58" s="13"/>
-      <c r="AW58" s="65"/>
-      <c r="AX58" s="66"/>
-      <c r="AY58" s="67"/>
-      <c r="AZ58" s="65"/>
-      <c r="BA58" s="66"/>
-      <c r="BB58" s="67"/>
-      <c r="BC58" s="71">
+      <c r="AW58" s="62"/>
+      <c r="AX58" s="63"/>
+      <c r="AY58" s="64"/>
+      <c r="AZ58" s="62"/>
+      <c r="BA58" s="63"/>
+      <c r="BB58" s="64"/>
+      <c r="BC58" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD58" s="72"/>
-      <c r="BE58" s="73"/>
+      <c r="BD58" s="66"/>
+      <c r="BE58" s="67"/>
       <c r="BF58" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12654,33 +12984,37 @@
         <v>38</v>
       </c>
       <c r="C59" s="11"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="64"/>
+      <c r="D59" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="156"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H59" s="156"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="75"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="71"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="73"/>
       <c r="S59" s="68"/>
       <c r="T59" s="69"/>
       <c r="U59" s="69"/>
       <c r="V59" s="69"/>
       <c r="W59" s="69"/>
       <c r="X59" s="70"/>
-      <c r="Y59" s="62"/>
-      <c r="Z59" s="63"/>
-      <c r="AA59" s="63"/>
-      <c r="AB59" s="63"/>
-      <c r="AC59" s="63"/>
-      <c r="AD59" s="64"/>
+      <c r="Y59" s="71"/>
+      <c r="Z59" s="72"/>
+      <c r="AA59" s="72"/>
+      <c r="AB59" s="72"/>
+      <c r="AC59" s="72"/>
+      <c r="AD59" s="73"/>
       <c r="AE59" s="12"/>
       <c r="AF59" s="52" t="s">
         <v>48</v>
@@ -12691,12 +13025,12 @@
         <v>48</v>
       </c>
       <c r="AJ59" s="13"/>
-      <c r="AK59" s="65"/>
-      <c r="AL59" s="66"/>
-      <c r="AM59" s="67"/>
-      <c r="AN59" s="65"/>
-      <c r="AO59" s="66"/>
-      <c r="AP59" s="67"/>
+      <c r="AK59" s="62"/>
+      <c r="AL59" s="63"/>
+      <c r="AM59" s="64"/>
+      <c r="AN59" s="62"/>
+      <c r="AO59" s="63"/>
+      <c r="AP59" s="64"/>
       <c r="AQ59" s="12"/>
       <c r="AR59" s="52" t="s">
         <v>48</v>
@@ -12707,18 +13041,18 @@
         <v>48</v>
       </c>
       <c r="AV59" s="13"/>
-      <c r="AW59" s="65"/>
-      <c r="AX59" s="66"/>
-      <c r="AY59" s="67"/>
-      <c r="AZ59" s="65"/>
-      <c r="BA59" s="66"/>
-      <c r="BB59" s="67"/>
-      <c r="BC59" s="71">
+      <c r="AW59" s="62"/>
+      <c r="AX59" s="63"/>
+      <c r="AY59" s="64"/>
+      <c r="AZ59" s="62"/>
+      <c r="BA59" s="63"/>
+      <c r="BB59" s="64"/>
+      <c r="BC59" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD59" s="72"/>
-      <c r="BE59" s="73"/>
+      <c r="BD59" s="66"/>
+      <c r="BE59" s="67"/>
       <c r="BF59" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12737,33 +13071,37 @@
         <v>39</v>
       </c>
       <c r="C60" s="11"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="75"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="64"/>
+      <c r="D60" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="156"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H60" s="156"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="72"/>
+      <c r="R60" s="73"/>
       <c r="S60" s="68"/>
       <c r="T60" s="69"/>
       <c r="U60" s="69"/>
       <c r="V60" s="69"/>
       <c r="W60" s="69"/>
       <c r="X60" s="70"/>
-      <c r="Y60" s="62"/>
-      <c r="Z60" s="63"/>
-      <c r="AA60" s="63"/>
-      <c r="AB60" s="63"/>
-      <c r="AC60" s="63"/>
-      <c r="AD60" s="64"/>
+      <c r="Y60" s="71"/>
+      <c r="Z60" s="72"/>
+      <c r="AA60" s="72"/>
+      <c r="AB60" s="72"/>
+      <c r="AC60" s="72"/>
+      <c r="AD60" s="73"/>
       <c r="AE60" s="12"/>
       <c r="AF60" s="52" t="s">
         <v>48</v>
@@ -12774,12 +13112,12 @@
         <v>48</v>
       </c>
       <c r="AJ60" s="13"/>
-      <c r="AK60" s="65"/>
-      <c r="AL60" s="66"/>
-      <c r="AM60" s="67"/>
-      <c r="AN60" s="65"/>
-      <c r="AO60" s="66"/>
-      <c r="AP60" s="67"/>
+      <c r="AK60" s="62"/>
+      <c r="AL60" s="63"/>
+      <c r="AM60" s="64"/>
+      <c r="AN60" s="62"/>
+      <c r="AO60" s="63"/>
+      <c r="AP60" s="64"/>
       <c r="AQ60" s="12"/>
       <c r="AR60" s="52" t="s">
         <v>48</v>
@@ -12790,18 +13128,18 @@
         <v>48</v>
       </c>
       <c r="AV60" s="13"/>
-      <c r="AW60" s="65"/>
-      <c r="AX60" s="66"/>
-      <c r="AY60" s="67"/>
-      <c r="AZ60" s="65"/>
-      <c r="BA60" s="66"/>
-      <c r="BB60" s="67"/>
-      <c r="BC60" s="71">
+      <c r="AW60" s="62"/>
+      <c r="AX60" s="63"/>
+      <c r="AY60" s="64"/>
+      <c r="AZ60" s="62"/>
+      <c r="BA60" s="63"/>
+      <c r="BB60" s="64"/>
+      <c r="BC60" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD60" s="72"/>
-      <c r="BE60" s="73"/>
+      <c r="BD60" s="66"/>
+      <c r="BE60" s="67"/>
       <c r="BF60" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12820,33 +13158,37 @@
         <v>40</v>
       </c>
       <c r="C61" s="11"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="64"/>
+      <c r="D61" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="156"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="155" t="s">
+        <v>761</v>
+      </c>
+      <c r="H61" s="156"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="76"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="72"/>
+      <c r="R61" s="73"/>
       <c r="S61" s="68"/>
       <c r="T61" s="69"/>
       <c r="U61" s="69"/>
       <c r="V61" s="69"/>
       <c r="W61" s="69"/>
       <c r="X61" s="70"/>
-      <c r="Y61" s="62"/>
-      <c r="Z61" s="63"/>
-      <c r="AA61" s="63"/>
-      <c r="AB61" s="63"/>
-      <c r="AC61" s="63"/>
-      <c r="AD61" s="64"/>
+      <c r="Y61" s="71"/>
+      <c r="Z61" s="72"/>
+      <c r="AA61" s="72"/>
+      <c r="AB61" s="72"/>
+      <c r="AC61" s="72"/>
+      <c r="AD61" s="73"/>
       <c r="AE61" s="12"/>
       <c r="AF61" s="52" t="s">
         <v>48</v>
@@ -12857,12 +13199,12 @@
         <v>48</v>
       </c>
       <c r="AJ61" s="13"/>
-      <c r="AK61" s="65"/>
-      <c r="AL61" s="66"/>
-      <c r="AM61" s="67"/>
-      <c r="AN61" s="65"/>
-      <c r="AO61" s="66"/>
-      <c r="AP61" s="67"/>
+      <c r="AK61" s="62"/>
+      <c r="AL61" s="63"/>
+      <c r="AM61" s="64"/>
+      <c r="AN61" s="62"/>
+      <c r="AO61" s="63"/>
+      <c r="AP61" s="64"/>
       <c r="AQ61" s="12"/>
       <c r="AR61" s="52" t="s">
         <v>48</v>
@@ -12873,18 +13215,18 @@
         <v>48</v>
       </c>
       <c r="AV61" s="13"/>
-      <c r="AW61" s="65"/>
-      <c r="AX61" s="66"/>
-      <c r="AY61" s="67"/>
-      <c r="AZ61" s="65"/>
-      <c r="BA61" s="66"/>
-      <c r="BB61" s="67"/>
-      <c r="BC61" s="71">
+      <c r="AW61" s="62"/>
+      <c r="AX61" s="63"/>
+      <c r="AY61" s="64"/>
+      <c r="AZ61" s="62"/>
+      <c r="BA61" s="63"/>
+      <c r="BB61" s="64"/>
+      <c r="BC61" s="65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BD61" s="72"/>
-      <c r="BE61" s="73"/>
+      <c r="BD61" s="66"/>
+      <c r="BE61" s="67"/>
       <c r="BF61" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12958,10 +13300,10 @@
       <c r="BH62" s="16"/>
     </row>
     <row r="63" spans="2:256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="131" t="s">
+      <c r="B63" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="131"/>
+      <c r="C63" s="114"/>
       <c r="D63" s="36" t="s">
         <v>52</v>
       </c>
@@ -14798,400 +15140,76 @@
   </sheetData>
   <sheetProtection password="CA2B" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="503">
-    <mergeCell ref="AZ51:BB51"/>
-    <mergeCell ref="BC51:BE51"/>
-    <mergeCell ref="S51:X51"/>
-    <mergeCell ref="Y51:AD51"/>
-    <mergeCell ref="AK51:AM51"/>
-    <mergeCell ref="AN51:AP51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:R50"/>
-    <mergeCell ref="AN50:AP50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:R51"/>
-    <mergeCell ref="AW51:AY51"/>
-    <mergeCell ref="AN49:AP49"/>
-    <mergeCell ref="AW49:AY49"/>
-    <mergeCell ref="AZ49:BB49"/>
-    <mergeCell ref="BC49:BE49"/>
-    <mergeCell ref="S50:X50"/>
-    <mergeCell ref="Y50:AD50"/>
-    <mergeCell ref="Y49:AD49"/>
-    <mergeCell ref="AK49:AM49"/>
-    <mergeCell ref="AK50:AM50"/>
-    <mergeCell ref="S49:X49"/>
-    <mergeCell ref="AW50:AY50"/>
-    <mergeCell ref="AZ50:BB50"/>
-    <mergeCell ref="BC50:BE50"/>
-    <mergeCell ref="S48:X48"/>
-    <mergeCell ref="Y48:AD48"/>
-    <mergeCell ref="Y47:AD47"/>
-    <mergeCell ref="AK47:AM47"/>
-    <mergeCell ref="BC48:BE48"/>
-    <mergeCell ref="AK48:AM48"/>
-    <mergeCell ref="AN48:AP48"/>
-    <mergeCell ref="AW48:AY48"/>
-    <mergeCell ref="AZ48:BB48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:R49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:R48"/>
-    <mergeCell ref="AN47:AP47"/>
-    <mergeCell ref="AW47:AY47"/>
-    <mergeCell ref="AZ47:BB47"/>
-    <mergeCell ref="BC46:BE46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M47:R47"/>
-    <mergeCell ref="S47:X47"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:R46"/>
-    <mergeCell ref="BC47:BE47"/>
-    <mergeCell ref="AN45:AP45"/>
-    <mergeCell ref="AW45:AY45"/>
-    <mergeCell ref="AZ45:BB45"/>
-    <mergeCell ref="BC45:BE45"/>
-    <mergeCell ref="S46:X46"/>
-    <mergeCell ref="Y46:AD46"/>
-    <mergeCell ref="Y45:AD45"/>
-    <mergeCell ref="AK45:AM45"/>
-    <mergeCell ref="AK46:AM46"/>
-    <mergeCell ref="S45:X45"/>
-    <mergeCell ref="AN46:AP46"/>
-    <mergeCell ref="AW46:AY46"/>
-    <mergeCell ref="AZ46:BB46"/>
-    <mergeCell ref="S44:X44"/>
-    <mergeCell ref="Y44:AD44"/>
-    <mergeCell ref="Y43:AD43"/>
-    <mergeCell ref="AK43:AM43"/>
-    <mergeCell ref="BC44:BE44"/>
-    <mergeCell ref="AK44:AM44"/>
-    <mergeCell ref="AN44:AP44"/>
-    <mergeCell ref="AW44:AY44"/>
-    <mergeCell ref="AZ44:BB44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="AN43:AP43"/>
-    <mergeCell ref="AW43:AY43"/>
-    <mergeCell ref="AZ43:BB43"/>
-    <mergeCell ref="BC42:BE42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:R43"/>
-    <mergeCell ref="S43:X43"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:R42"/>
-    <mergeCell ref="BC43:BE43"/>
-    <mergeCell ref="AN41:AP41"/>
-    <mergeCell ref="AW41:AY41"/>
-    <mergeCell ref="AZ41:BB41"/>
-    <mergeCell ref="BC41:BE41"/>
-    <mergeCell ref="S42:X42"/>
-    <mergeCell ref="Y42:AD42"/>
-    <mergeCell ref="Y41:AD41"/>
-    <mergeCell ref="AK41:AM41"/>
-    <mergeCell ref="AK42:AM42"/>
-    <mergeCell ref="S41:X41"/>
-    <mergeCell ref="AN42:AP42"/>
-    <mergeCell ref="AW42:AY42"/>
-    <mergeCell ref="AZ42:BB42"/>
-    <mergeCell ref="S40:X40"/>
-    <mergeCell ref="Y40:AD40"/>
-    <mergeCell ref="Y39:AD39"/>
-    <mergeCell ref="AK39:AM39"/>
-    <mergeCell ref="BC40:BE40"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AN40:AP40"/>
-    <mergeCell ref="AW40:AY40"/>
-    <mergeCell ref="AZ40:BB40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:R41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:R40"/>
-    <mergeCell ref="AN39:AP39"/>
-    <mergeCell ref="AW39:AY39"/>
-    <mergeCell ref="AZ39:BB39"/>
-    <mergeCell ref="BC38:BE38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:R39"/>
-    <mergeCell ref="S39:X39"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:R38"/>
-    <mergeCell ref="BC39:BE39"/>
-    <mergeCell ref="AN37:AP37"/>
-    <mergeCell ref="AW37:AY37"/>
-    <mergeCell ref="AZ37:BB37"/>
-    <mergeCell ref="BC37:BE37"/>
-    <mergeCell ref="S38:X38"/>
-    <mergeCell ref="Y38:AD38"/>
-    <mergeCell ref="Y37:AD37"/>
-    <mergeCell ref="AK37:AM37"/>
-    <mergeCell ref="AK38:AM38"/>
-    <mergeCell ref="S37:X37"/>
-    <mergeCell ref="AN38:AP38"/>
-    <mergeCell ref="AW38:AY38"/>
-    <mergeCell ref="AZ38:BB38"/>
-    <mergeCell ref="S36:X36"/>
-    <mergeCell ref="Y36:AD36"/>
-    <mergeCell ref="Y35:AD35"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="BC36:BE36"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AW36:AY36"/>
-    <mergeCell ref="AZ36:BB36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:R37"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:R36"/>
-    <mergeCell ref="AN35:AP35"/>
-    <mergeCell ref="AW35:AY35"/>
-    <mergeCell ref="AZ35:BB35"/>
-    <mergeCell ref="BC34:BE34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:R35"/>
-    <mergeCell ref="S35:X35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="BC35:BE35"/>
-    <mergeCell ref="AN33:AP33"/>
-    <mergeCell ref="AW33:AY33"/>
-    <mergeCell ref="AZ33:BB33"/>
-    <mergeCell ref="BC33:BE33"/>
-    <mergeCell ref="S34:X34"/>
-    <mergeCell ref="Y34:AD34"/>
-    <mergeCell ref="Y33:AD33"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="S33:X33"/>
-    <mergeCell ref="AN34:AP34"/>
-    <mergeCell ref="AW34:AY34"/>
-    <mergeCell ref="AZ34:BB34"/>
-    <mergeCell ref="S32:X32"/>
-    <mergeCell ref="Y32:AD32"/>
-    <mergeCell ref="Y31:AD31"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="BC32:BE32"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="AN32:AP32"/>
-    <mergeCell ref="AW32:AY32"/>
-    <mergeCell ref="AZ32:BB32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="AN31:AP31"/>
-    <mergeCell ref="AW31:AY31"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BC30:BE30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="BC31:BE31"/>
-    <mergeCell ref="AN29:AP29"/>
-    <mergeCell ref="AW29:AY29"/>
-    <mergeCell ref="AZ29:BB29"/>
-    <mergeCell ref="BC29:BE29"/>
-    <mergeCell ref="S30:X30"/>
-    <mergeCell ref="Y30:AD30"/>
-    <mergeCell ref="Y29:AD29"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="S29:X29"/>
-    <mergeCell ref="AN30:AP30"/>
-    <mergeCell ref="AW30:AY30"/>
-    <mergeCell ref="AZ30:BB30"/>
-    <mergeCell ref="BC27:BE27"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AD28"/>
-    <mergeCell ref="Y27:AD27"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="BC28:BE28"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AN28:AP28"/>
-    <mergeCell ref="AW28:AY28"/>
-    <mergeCell ref="AZ28:BB28"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="AZ27:BB27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:X27"/>
-    <mergeCell ref="BC25:BE25"/>
-    <mergeCell ref="S26:X26"/>
-    <mergeCell ref="Y26:AD26"/>
-    <mergeCell ref="Y25:AD25"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="BC26:BE26"/>
-    <mergeCell ref="AN26:AP26"/>
-    <mergeCell ref="AW26:AY26"/>
-    <mergeCell ref="AZ26:BB26"/>
-    <mergeCell ref="S24:X24"/>
-    <mergeCell ref="Y24:AD24"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AN24:AP24"/>
-    <mergeCell ref="AW24:AY24"/>
-    <mergeCell ref="AZ24:BB24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="BC22:BE22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:X23"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="BC23:BE23"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AK20:AP20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="AN22:AP22"/>
-    <mergeCell ref="S25:X25"/>
-    <mergeCell ref="AK52:AM52"/>
-    <mergeCell ref="AZ21:BB21"/>
-    <mergeCell ref="BC21:BE21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="M19:AD19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="AE19:AP19"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="Y22:AD22"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="Y21:AD21"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="M52:R52"/>
-    <mergeCell ref="S52:X52"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:X20"/>
-    <mergeCell ref="Y20:AD20"/>
-    <mergeCell ref="BB11:BE11"/>
-    <mergeCell ref="AQ11:AT11"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="F11:AP11"/>
-    <mergeCell ref="AU11:AX11"/>
-    <mergeCell ref="AY11:BA11"/>
-    <mergeCell ref="AH13:BE13"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="P13:AC13"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="U15:AC15"/>
-    <mergeCell ref="BC19:BE20"/>
-    <mergeCell ref="D17:BE17"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="Y9:AC9"/>
-    <mergeCell ref="D3:BE3"/>
-    <mergeCell ref="D4:BE4"/>
-    <mergeCell ref="AX9:BE9"/>
-    <mergeCell ref="AH15:BE15"/>
-    <mergeCell ref="AQ19:BB19"/>
-    <mergeCell ref="AQ20:AS20"/>
-    <mergeCell ref="AT20:AV20"/>
-    <mergeCell ref="AQ9:AW9"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="AE20:AG20"/>
+    <mergeCell ref="BC59:BE59"/>
+    <mergeCell ref="AZ61:BB61"/>
+    <mergeCell ref="BC61:BE61"/>
+    <mergeCell ref="AW60:AY60"/>
+    <mergeCell ref="AZ60:BB60"/>
+    <mergeCell ref="BC60:BE60"/>
+    <mergeCell ref="M59:R59"/>
+    <mergeCell ref="AK59:AM59"/>
+    <mergeCell ref="S59:X59"/>
+    <mergeCell ref="Y59:AD59"/>
+    <mergeCell ref="AK61:AM61"/>
+    <mergeCell ref="Y60:AD60"/>
+    <mergeCell ref="AK60:AM60"/>
+    <mergeCell ref="S61:X61"/>
+    <mergeCell ref="Y61:AD61"/>
+    <mergeCell ref="AN61:AP61"/>
+    <mergeCell ref="AW61:AY61"/>
+    <mergeCell ref="M60:R60"/>
+    <mergeCell ref="M61:R61"/>
+    <mergeCell ref="S60:X60"/>
+    <mergeCell ref="AN60:AP60"/>
+    <mergeCell ref="AN59:AP59"/>
+    <mergeCell ref="AW59:AY59"/>
+    <mergeCell ref="AZ59:BB59"/>
+    <mergeCell ref="AN58:AP58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="M58:R58"/>
+    <mergeCell ref="S58:X58"/>
+    <mergeCell ref="Y58:AD58"/>
+    <mergeCell ref="AK58:AM58"/>
+    <mergeCell ref="AW57:AY57"/>
+    <mergeCell ref="M56:R56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:R57"/>
+    <mergeCell ref="AN56:AP56"/>
+    <mergeCell ref="S57:X57"/>
+    <mergeCell ref="Y57:AD57"/>
+    <mergeCell ref="AN57:AP57"/>
+    <mergeCell ref="AK57:AM57"/>
+    <mergeCell ref="S56:X56"/>
+    <mergeCell ref="Y56:AD56"/>
+    <mergeCell ref="AK56:AM56"/>
+    <mergeCell ref="AZ55:BB55"/>
+    <mergeCell ref="BC55:BE55"/>
+    <mergeCell ref="AW54:AY54"/>
+    <mergeCell ref="AZ54:BB54"/>
+    <mergeCell ref="BC54:BE54"/>
+    <mergeCell ref="AW55:AY55"/>
+    <mergeCell ref="AW58:AY58"/>
+    <mergeCell ref="AZ58:BB58"/>
+    <mergeCell ref="BC58:BE58"/>
+    <mergeCell ref="AZ57:BB57"/>
+    <mergeCell ref="BC57:BE57"/>
+    <mergeCell ref="AW56:AY56"/>
+    <mergeCell ref="AZ56:BB56"/>
+    <mergeCell ref="BC56:BE56"/>
+    <mergeCell ref="M55:R55"/>
+    <mergeCell ref="AK55:AM55"/>
+    <mergeCell ref="S55:X55"/>
+    <mergeCell ref="Y55:AD55"/>
+    <mergeCell ref="AN55:AP55"/>
+    <mergeCell ref="M54:R54"/>
+    <mergeCell ref="S54:X54"/>
+    <mergeCell ref="Y54:AD54"/>
+    <mergeCell ref="AK54:AM54"/>
+    <mergeCell ref="AN54:AP54"/>
     <mergeCell ref="D6:BE6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="BC1:BE1"/>
@@ -15216,8 +15234,90 @@
     <mergeCell ref="AW52:AY52"/>
     <mergeCell ref="AZ52:BB52"/>
     <mergeCell ref="AW20:BB20"/>
+    <mergeCell ref="BB11:BE11"/>
+    <mergeCell ref="AQ11:AT11"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="F11:AP11"/>
+    <mergeCell ref="AU11:AX11"/>
+    <mergeCell ref="AY11:BA11"/>
+    <mergeCell ref="AH13:BE13"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="P13:AC13"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="U15:AC15"/>
+    <mergeCell ref="BC19:BE20"/>
+    <mergeCell ref="D17:BE17"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="AH15:BE15"/>
+    <mergeCell ref="AQ19:BB19"/>
+    <mergeCell ref="AQ20:AS20"/>
+    <mergeCell ref="AT20:AV20"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="AE20:AG20"/>
     <mergeCell ref="AN21:AP21"/>
     <mergeCell ref="AW21:AY21"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="M52:R52"/>
+    <mergeCell ref="S52:X52"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="M19:AD19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="AE19:AP19"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:X20"/>
+    <mergeCell ref="Y20:AD20"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="Y9:AC9"/>
+    <mergeCell ref="D3:BE3"/>
+    <mergeCell ref="D4:BE4"/>
+    <mergeCell ref="AX9:BE9"/>
+    <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AK20:AP20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="AN22:AP22"/>
+    <mergeCell ref="S25:X25"/>
+    <mergeCell ref="AK52:AM52"/>
+    <mergeCell ref="AZ21:BB21"/>
+    <mergeCell ref="BC21:BE21"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="AK22:AM22"/>
     <mergeCell ref="AW22:AY22"/>
     <mergeCell ref="AZ22:BB22"/>
     <mergeCell ref="AN23:AP23"/>
@@ -15228,79 +15328,321 @@
     <mergeCell ref="AZ25:BB25"/>
     <mergeCell ref="AN27:AP27"/>
     <mergeCell ref="AW27:AY27"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="M55:R55"/>
-    <mergeCell ref="AK55:AM55"/>
-    <mergeCell ref="S55:X55"/>
-    <mergeCell ref="Y55:AD55"/>
-    <mergeCell ref="AN55:AP55"/>
-    <mergeCell ref="M54:R54"/>
-    <mergeCell ref="S54:X54"/>
-    <mergeCell ref="Y54:AD54"/>
-    <mergeCell ref="AK54:AM54"/>
-    <mergeCell ref="AN54:AP54"/>
-    <mergeCell ref="AZ55:BB55"/>
-    <mergeCell ref="BC55:BE55"/>
-    <mergeCell ref="AW54:AY54"/>
-    <mergeCell ref="AZ54:BB54"/>
-    <mergeCell ref="BC54:BE54"/>
-    <mergeCell ref="AW55:AY55"/>
-    <mergeCell ref="AW58:AY58"/>
-    <mergeCell ref="AZ58:BB58"/>
-    <mergeCell ref="BC58:BE58"/>
-    <mergeCell ref="M56:R56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="M57:R57"/>
-    <mergeCell ref="AN56:AP56"/>
-    <mergeCell ref="S57:X57"/>
-    <mergeCell ref="Y57:AD57"/>
-    <mergeCell ref="AN57:AP57"/>
-    <mergeCell ref="AK57:AM57"/>
-    <mergeCell ref="S56:X56"/>
-    <mergeCell ref="Y56:AD56"/>
-    <mergeCell ref="AK56:AM56"/>
-    <mergeCell ref="AN58:AP58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="M58:R58"/>
-    <mergeCell ref="S58:X58"/>
-    <mergeCell ref="Y58:AD58"/>
-    <mergeCell ref="AK58:AM58"/>
-    <mergeCell ref="AW57:AY57"/>
-    <mergeCell ref="AZ57:BB57"/>
-    <mergeCell ref="BC57:BE57"/>
-    <mergeCell ref="AW56:AY56"/>
-    <mergeCell ref="AZ56:BB56"/>
-    <mergeCell ref="BC56:BE56"/>
-    <mergeCell ref="AN61:AP61"/>
-    <mergeCell ref="AW61:AY61"/>
-    <mergeCell ref="M60:R60"/>
-    <mergeCell ref="M61:R61"/>
-    <mergeCell ref="S60:X60"/>
-    <mergeCell ref="AN60:AP60"/>
-    <mergeCell ref="AN59:AP59"/>
-    <mergeCell ref="AW59:AY59"/>
-    <mergeCell ref="AZ59:BB59"/>
-    <mergeCell ref="BC59:BE59"/>
-    <mergeCell ref="AZ61:BB61"/>
-    <mergeCell ref="BC61:BE61"/>
-    <mergeCell ref="AW60:AY60"/>
-    <mergeCell ref="AZ60:BB60"/>
-    <mergeCell ref="BC60:BE60"/>
-    <mergeCell ref="M59:R59"/>
-    <mergeCell ref="AK59:AM59"/>
-    <mergeCell ref="S59:X59"/>
-    <mergeCell ref="Y59:AD59"/>
-    <mergeCell ref="AK61:AM61"/>
-    <mergeCell ref="Y60:AD60"/>
-    <mergeCell ref="AK60:AM60"/>
-    <mergeCell ref="S61:X61"/>
-    <mergeCell ref="Y61:AD61"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="BC22:BE22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:X23"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="BC23:BE23"/>
+    <mergeCell ref="S24:X24"/>
+    <mergeCell ref="Y24:AD24"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="AN24:AP24"/>
+    <mergeCell ref="AW24:AY24"/>
+    <mergeCell ref="AZ24:BB24"/>
+    <mergeCell ref="BC25:BE25"/>
+    <mergeCell ref="S26:X26"/>
+    <mergeCell ref="Y26:AD26"/>
+    <mergeCell ref="Y25:AD25"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="BC26:BE26"/>
+    <mergeCell ref="AN26:AP26"/>
+    <mergeCell ref="AW26:AY26"/>
+    <mergeCell ref="AZ26:BB26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="BC27:BE27"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AD28"/>
+    <mergeCell ref="Y27:AD27"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="BC28:BE28"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AN28:AP28"/>
+    <mergeCell ref="AW28:AY28"/>
+    <mergeCell ref="AZ28:BB28"/>
+    <mergeCell ref="AZ27:BB27"/>
+    <mergeCell ref="S27:X27"/>
+    <mergeCell ref="AN29:AP29"/>
+    <mergeCell ref="AW29:AY29"/>
+    <mergeCell ref="AZ29:BB29"/>
+    <mergeCell ref="BC29:BE29"/>
+    <mergeCell ref="S30:X30"/>
+    <mergeCell ref="Y30:AD30"/>
+    <mergeCell ref="Y29:AD29"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="S29:X29"/>
+    <mergeCell ref="AN30:AP30"/>
+    <mergeCell ref="AW30:AY30"/>
+    <mergeCell ref="AZ30:BB30"/>
+    <mergeCell ref="BC30:BE30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="BC31:BE31"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="AN31:AP31"/>
+    <mergeCell ref="S32:X32"/>
+    <mergeCell ref="Y32:AD32"/>
+    <mergeCell ref="Y31:AD31"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="BC32:BE32"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AN32:AP32"/>
+    <mergeCell ref="AW32:AY32"/>
+    <mergeCell ref="AZ32:BB32"/>
+    <mergeCell ref="AW31:AY31"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="AN33:AP33"/>
+    <mergeCell ref="AW33:AY33"/>
+    <mergeCell ref="AZ33:BB33"/>
+    <mergeCell ref="BC33:BE33"/>
+    <mergeCell ref="S34:X34"/>
+    <mergeCell ref="Y34:AD34"/>
+    <mergeCell ref="Y33:AD33"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="S33:X33"/>
+    <mergeCell ref="AN34:AP34"/>
+    <mergeCell ref="AW34:AY34"/>
+    <mergeCell ref="AZ34:BB34"/>
+    <mergeCell ref="BC34:BE34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="S35:X35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="BC35:BE35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:R37"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:R36"/>
+    <mergeCell ref="AN35:AP35"/>
+    <mergeCell ref="S36:X36"/>
+    <mergeCell ref="Y36:AD36"/>
+    <mergeCell ref="Y35:AD35"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="BC36:BE36"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AW36:AY36"/>
+    <mergeCell ref="AZ36:BB36"/>
+    <mergeCell ref="AW35:AY35"/>
+    <mergeCell ref="AZ35:BB35"/>
+    <mergeCell ref="AN37:AP37"/>
+    <mergeCell ref="AW37:AY37"/>
+    <mergeCell ref="AZ37:BB37"/>
+    <mergeCell ref="BC37:BE37"/>
+    <mergeCell ref="S38:X38"/>
+    <mergeCell ref="Y38:AD38"/>
+    <mergeCell ref="Y37:AD37"/>
+    <mergeCell ref="AK37:AM37"/>
+    <mergeCell ref="AK38:AM38"/>
+    <mergeCell ref="S37:X37"/>
+    <mergeCell ref="AN38:AP38"/>
+    <mergeCell ref="AW38:AY38"/>
+    <mergeCell ref="AZ38:BB38"/>
+    <mergeCell ref="BC38:BE38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:R39"/>
+    <mergeCell ref="S39:X39"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:R38"/>
+    <mergeCell ref="BC39:BE39"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:R41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="AN39:AP39"/>
+    <mergeCell ref="S40:X40"/>
+    <mergeCell ref="Y40:AD40"/>
+    <mergeCell ref="Y39:AD39"/>
+    <mergeCell ref="AK39:AM39"/>
+    <mergeCell ref="BC40:BE40"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AN40:AP40"/>
+    <mergeCell ref="AW40:AY40"/>
+    <mergeCell ref="AZ40:BB40"/>
+    <mergeCell ref="AW39:AY39"/>
+    <mergeCell ref="AZ39:BB39"/>
+    <mergeCell ref="AN41:AP41"/>
+    <mergeCell ref="AW41:AY41"/>
+    <mergeCell ref="AZ41:BB41"/>
+    <mergeCell ref="BC41:BE41"/>
+    <mergeCell ref="S42:X42"/>
+    <mergeCell ref="Y42:AD42"/>
+    <mergeCell ref="Y41:AD41"/>
+    <mergeCell ref="AK41:AM41"/>
+    <mergeCell ref="AK42:AM42"/>
+    <mergeCell ref="S41:X41"/>
+    <mergeCell ref="AN42:AP42"/>
+    <mergeCell ref="AW42:AY42"/>
+    <mergeCell ref="AZ42:BB42"/>
+    <mergeCell ref="BC42:BE42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M43:R43"/>
+    <mergeCell ref="S43:X43"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:R42"/>
+    <mergeCell ref="BC43:BE43"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="AN43:AP43"/>
+    <mergeCell ref="S44:X44"/>
+    <mergeCell ref="Y44:AD44"/>
+    <mergeCell ref="Y43:AD43"/>
+    <mergeCell ref="AK43:AM43"/>
+    <mergeCell ref="BC44:BE44"/>
+    <mergeCell ref="AK44:AM44"/>
+    <mergeCell ref="AN44:AP44"/>
+    <mergeCell ref="AW44:AY44"/>
+    <mergeCell ref="AZ44:BB44"/>
+    <mergeCell ref="AW43:AY43"/>
+    <mergeCell ref="AZ43:BB43"/>
+    <mergeCell ref="AN45:AP45"/>
+    <mergeCell ref="AW45:AY45"/>
+    <mergeCell ref="AZ45:BB45"/>
+    <mergeCell ref="BC45:BE45"/>
+    <mergeCell ref="S46:X46"/>
+    <mergeCell ref="Y46:AD46"/>
+    <mergeCell ref="Y45:AD45"/>
+    <mergeCell ref="AK45:AM45"/>
+    <mergeCell ref="AK46:AM46"/>
+    <mergeCell ref="S45:X45"/>
+    <mergeCell ref="AN46:AP46"/>
+    <mergeCell ref="AW46:AY46"/>
+    <mergeCell ref="AZ46:BB46"/>
+    <mergeCell ref="BC46:BE46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M47:R47"/>
+    <mergeCell ref="S47:X47"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:R46"/>
+    <mergeCell ref="BC47:BE47"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:R49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:R48"/>
+    <mergeCell ref="AN47:AP47"/>
+    <mergeCell ref="S48:X48"/>
+    <mergeCell ref="Y48:AD48"/>
+    <mergeCell ref="Y47:AD47"/>
+    <mergeCell ref="AK47:AM47"/>
+    <mergeCell ref="BC48:BE48"/>
+    <mergeCell ref="AK48:AM48"/>
+    <mergeCell ref="AN48:AP48"/>
+    <mergeCell ref="AW48:AY48"/>
+    <mergeCell ref="AZ48:BB48"/>
+    <mergeCell ref="AW47:AY47"/>
+    <mergeCell ref="AZ47:BB47"/>
+    <mergeCell ref="AN49:AP49"/>
+    <mergeCell ref="AW49:AY49"/>
+    <mergeCell ref="AZ49:BB49"/>
+    <mergeCell ref="BC49:BE49"/>
+    <mergeCell ref="S50:X50"/>
+    <mergeCell ref="Y50:AD50"/>
+    <mergeCell ref="Y49:AD49"/>
+    <mergeCell ref="AK49:AM49"/>
+    <mergeCell ref="AK50:AM50"/>
+    <mergeCell ref="S49:X49"/>
+    <mergeCell ref="AW50:AY50"/>
+    <mergeCell ref="AZ50:BB50"/>
+    <mergeCell ref="BC50:BE50"/>
+    <mergeCell ref="AZ51:BB51"/>
+    <mergeCell ref="BC51:BE51"/>
+    <mergeCell ref="S51:X51"/>
+    <mergeCell ref="Y51:AD51"/>
+    <mergeCell ref="AK51:AM51"/>
+    <mergeCell ref="AN51:AP51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:R50"/>
+    <mergeCell ref="AN50:AP50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:R51"/>
+    <mergeCell ref="AW51:AY51"/>
   </mergeCells>
   <conditionalFormatting sqref="BC22">
     <cfRule type="cellIs" dxfId="239" priority="1" operator="between">
@@ -16622,7 +16964,7 @@
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1933">
+  <dataValidations count="1814">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M22">
       <formula1>lstStationList</formula1>
     </dataValidation>
@@ -18783,364 +19125,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD61">
       <formula1>lstStationList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D49">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D58">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D60">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D61">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E42">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E46">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E47">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E52">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E55">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E58">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E59">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E60">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F39">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F43">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F45">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F46">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F47">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F48">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F49">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F50">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F51">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F52">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F53">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F54">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F55">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F56">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F58">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F59">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F61">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D25">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D37">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E25">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E26">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E27">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E33">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E37">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F26">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F31">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F34">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F37">
-      <formula1>lstTypes</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:F61">
       <formula1>lstTypes</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Numéro de train non valable" error="Numéro de train prévu non valable" sqref="AN22">
